--- a/2K19_Players.xlsx
+++ b/2K19_Players.xlsx
@@ -163,7 +163,7 @@
     <t>Steven Adams</t>
   </si>
   <si>
-    <t>D'Angelo Russell</t>
+    <t>DAngelo Russell</t>
   </si>
   <si>
     <t>Gary Harris</t>
@@ -385,7 +385,7 @@
     <t>Rudy Gay</t>
   </si>
   <si>
-    <t>De'Aaron Fox</t>
+    <t>DeAaron Fox</t>
   </si>
   <si>
     <t>Kris Dunn</t>
@@ -577,7 +577,7 @@
     <t>Kelly Oubre</t>
   </si>
   <si>
-    <t>Kyle O'Quinn</t>
+    <t>Kyle OQuinn</t>
   </si>
   <si>
     <t>Shabazz Napier</t>
@@ -706,7 +706,7 @@
     <t>Cedi Osman</t>
   </si>
   <si>
-    <t>E'Twaun Moore</t>
+    <t>ETwaun Moore</t>
   </si>
   <si>
     <t>CJ Miles</t>
@@ -835,7 +835,7 @@
     <t>Patrick Patterson</t>
   </si>
   <si>
-    <t>Royce O'Neale</t>
+    <t>Royce ONeale</t>
   </si>
   <si>
     <t>Frank Ntilikina</t>
@@ -1562,7 +1562,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1574,6 +1574,9 @@
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -1931,7 +1934,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="3">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="11">
@@ -2356,7 +2359,7 @@
       <c r="A49" s="3">
         <v>48.0</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="3">
@@ -3170,7 +3173,7 @@
       <c r="A123" s="3">
         <v>108.0</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C123" s="3">
@@ -3874,7 +3877,7 @@
       <c r="A187" s="3">
         <v>167.0</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="5" t="s">
         <v>188</v>
       </c>
       <c r="C187" s="3">
@@ -4347,7 +4350,7 @@
       <c r="A230" s="3">
         <v>221.0</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="5" t="s">
         <v>231</v>
       </c>
       <c r="C230" s="3">
@@ -4820,7 +4823,7 @@
       <c r="A273" s="3">
         <v>261.0</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" s="5" t="s">
         <v>274</v>
       </c>
       <c r="C273" s="3">
@@ -7031,7 +7034,7 @@
       <c r="A474" s="3">
         <v>470.0</v>
       </c>
-      <c r="B474" s="5" t="s">
+      <c r="B474" s="6" t="s">
         <v>475</v>
       </c>
       <c r="C474" s="3">
@@ -7237,2544 +7240,2544 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="6"/>
-      <c r="B493" s="6"/>
-      <c r="C493" s="6"/>
+      <c r="A493" s="7"/>
+      <c r="B493" s="7"/>
+      <c r="C493" s="7"/>
     </row>
     <row r="494">
-      <c r="A494" s="6"/>
-      <c r="B494" s="6"/>
-      <c r="C494" s="6"/>
+      <c r="A494" s="7"/>
+      <c r="B494" s="7"/>
+      <c r="C494" s="7"/>
     </row>
     <row r="495">
-      <c r="A495" s="6"/>
-      <c r="B495" s="6"/>
-      <c r="C495" s="6"/>
+      <c r="A495" s="7"/>
+      <c r="B495" s="7"/>
+      <c r="C495" s="7"/>
     </row>
     <row r="496">
-      <c r="A496" s="6"/>
-      <c r="B496" s="6"/>
-      <c r="C496" s="6"/>
+      <c r="A496" s="7"/>
+      <c r="B496" s="7"/>
+      <c r="C496" s="7"/>
     </row>
     <row r="497">
-      <c r="A497" s="6"/>
-      <c r="B497" s="6"/>
-      <c r="C497" s="6"/>
+      <c r="A497" s="7"/>
+      <c r="B497" s="7"/>
+      <c r="C497" s="7"/>
     </row>
     <row r="498">
-      <c r="A498" s="6"/>
-      <c r="B498" s="6"/>
-      <c r="C498" s="6"/>
+      <c r="A498" s="7"/>
+      <c r="B498" s="7"/>
+      <c r="C498" s="7"/>
     </row>
     <row r="499">
-      <c r="A499" s="6"/>
-      <c r="B499" s="6"/>
-      <c r="C499" s="6"/>
+      <c r="A499" s="7"/>
+      <c r="B499" s="7"/>
+      <c r="C499" s="7"/>
     </row>
     <row r="500">
-      <c r="A500" s="6"/>
-      <c r="B500" s="6"/>
-      <c r="C500" s="6"/>
+      <c r="A500" s="7"/>
+      <c r="B500" s="7"/>
+      <c r="C500" s="7"/>
     </row>
     <row r="501">
-      <c r="A501" s="6"/>
-      <c r="B501" s="6"/>
-      <c r="C501" s="6"/>
+      <c r="A501" s="7"/>
+      <c r="B501" s="7"/>
+      <c r="C501" s="7"/>
     </row>
     <row r="502">
-      <c r="A502" s="6"/>
-      <c r="B502" s="6"/>
-      <c r="C502" s="6"/>
+      <c r="A502" s="7"/>
+      <c r="B502" s="7"/>
+      <c r="C502" s="7"/>
     </row>
     <row r="503">
-      <c r="A503" s="6"/>
-      <c r="B503" s="6"/>
-      <c r="C503" s="6"/>
+      <c r="A503" s="7"/>
+      <c r="B503" s="7"/>
+      <c r="C503" s="7"/>
     </row>
     <row r="504">
-      <c r="A504" s="6"/>
-      <c r="B504" s="6"/>
-      <c r="C504" s="6"/>
+      <c r="A504" s="7"/>
+      <c r="B504" s="7"/>
+      <c r="C504" s="7"/>
     </row>
     <row r="505">
-      <c r="A505" s="6"/>
-      <c r="B505" s="6"/>
-      <c r="C505" s="6"/>
+      <c r="A505" s="7"/>
+      <c r="B505" s="7"/>
+      <c r="C505" s="7"/>
     </row>
     <row r="506">
-      <c r="A506" s="6"/>
-      <c r="B506" s="6"/>
-      <c r="C506" s="6"/>
+      <c r="A506" s="7"/>
+      <c r="B506" s="7"/>
+      <c r="C506" s="7"/>
     </row>
     <row r="507">
-      <c r="A507" s="6"/>
-      <c r="B507" s="6"/>
-      <c r="C507" s="6"/>
+      <c r="A507" s="7"/>
+      <c r="B507" s="7"/>
+      <c r="C507" s="7"/>
     </row>
     <row r="508">
-      <c r="A508" s="6"/>
-      <c r="B508" s="6"/>
-      <c r="C508" s="6"/>
+      <c r="A508" s="7"/>
+      <c r="B508" s="7"/>
+      <c r="C508" s="7"/>
     </row>
     <row r="509">
-      <c r="A509" s="6"/>
-      <c r="B509" s="6"/>
-      <c r="C509" s="6"/>
+      <c r="A509" s="7"/>
+      <c r="B509" s="7"/>
+      <c r="C509" s="7"/>
     </row>
     <row r="510">
-      <c r="A510" s="6"/>
-      <c r="B510" s="6"/>
-      <c r="C510" s="6"/>
+      <c r="A510" s="7"/>
+      <c r="B510" s="7"/>
+      <c r="C510" s="7"/>
     </row>
     <row r="511">
-      <c r="A511" s="6"/>
-      <c r="B511" s="6"/>
-      <c r="C511" s="6"/>
+      <c r="A511" s="7"/>
+      <c r="B511" s="7"/>
+      <c r="C511" s="7"/>
     </row>
     <row r="512">
-      <c r="A512" s="6"/>
-      <c r="B512" s="6"/>
-      <c r="C512" s="6"/>
+      <c r="A512" s="7"/>
+      <c r="B512" s="7"/>
+      <c r="C512" s="7"/>
     </row>
     <row r="513">
-      <c r="A513" s="6"/>
-      <c r="B513" s="6"/>
-      <c r="C513" s="6"/>
+      <c r="A513" s="7"/>
+      <c r="B513" s="7"/>
+      <c r="C513" s="7"/>
     </row>
     <row r="514">
-      <c r="A514" s="6"/>
-      <c r="B514" s="6"/>
-      <c r="C514" s="6"/>
+      <c r="A514" s="7"/>
+      <c r="B514" s="7"/>
+      <c r="C514" s="7"/>
     </row>
     <row r="515">
-      <c r="A515" s="6"/>
-      <c r="B515" s="6"/>
-      <c r="C515" s="6"/>
+      <c r="A515" s="7"/>
+      <c r="B515" s="7"/>
+      <c r="C515" s="7"/>
     </row>
     <row r="516">
-      <c r="A516" s="6"/>
-      <c r="B516" s="6"/>
-      <c r="C516" s="6"/>
+      <c r="A516" s="7"/>
+      <c r="B516" s="7"/>
+      <c r="C516" s="7"/>
     </row>
     <row r="517">
-      <c r="A517" s="6"/>
-      <c r="B517" s="6"/>
-      <c r="C517" s="6"/>
+      <c r="A517" s="7"/>
+      <c r="B517" s="7"/>
+      <c r="C517" s="7"/>
     </row>
     <row r="518">
-      <c r="A518" s="6"/>
-      <c r="B518" s="6"/>
-      <c r="C518" s="6"/>
+      <c r="A518" s="7"/>
+      <c r="B518" s="7"/>
+      <c r="C518" s="7"/>
     </row>
     <row r="519">
-      <c r="A519" s="6"/>
-      <c r="B519" s="6"/>
-      <c r="C519" s="6"/>
+      <c r="A519" s="7"/>
+      <c r="B519" s="7"/>
+      <c r="C519" s="7"/>
     </row>
     <row r="520">
-      <c r="A520" s="6"/>
-      <c r="B520" s="6"/>
-      <c r="C520" s="6"/>
+      <c r="A520" s="7"/>
+      <c r="B520" s="7"/>
+      <c r="C520" s="7"/>
     </row>
     <row r="521">
-      <c r="A521" s="6"/>
-      <c r="B521" s="6"/>
-      <c r="C521" s="6"/>
+      <c r="A521" s="7"/>
+      <c r="B521" s="7"/>
+      <c r="C521" s="7"/>
     </row>
     <row r="522">
-      <c r="A522" s="6"/>
-      <c r="B522" s="6"/>
-      <c r="C522" s="6"/>
+      <c r="A522" s="7"/>
+      <c r="B522" s="7"/>
+      <c r="C522" s="7"/>
     </row>
     <row r="523">
-      <c r="A523" s="6"/>
-      <c r="B523" s="6"/>
-      <c r="C523" s="6"/>
+      <c r="A523" s="7"/>
+      <c r="B523" s="7"/>
+      <c r="C523" s="7"/>
     </row>
     <row r="524">
-      <c r="A524" s="6"/>
-      <c r="B524" s="6"/>
-      <c r="C524" s="6"/>
+      <c r="A524" s="7"/>
+      <c r="B524" s="7"/>
+      <c r="C524" s="7"/>
     </row>
     <row r="525">
-      <c r="A525" s="6"/>
-      <c r="B525" s="6"/>
-      <c r="C525" s="6"/>
+      <c r="A525" s="7"/>
+      <c r="B525" s="7"/>
+      <c r="C525" s="7"/>
     </row>
     <row r="526">
-      <c r="A526" s="6"/>
-      <c r="B526" s="6"/>
-      <c r="C526" s="6"/>
+      <c r="A526" s="7"/>
+      <c r="B526" s="7"/>
+      <c r="C526" s="7"/>
     </row>
     <row r="527">
-      <c r="A527" s="6"/>
-      <c r="B527" s="6"/>
-      <c r="C527" s="6"/>
+      <c r="A527" s="7"/>
+      <c r="B527" s="7"/>
+      <c r="C527" s="7"/>
     </row>
     <row r="528">
-      <c r="A528" s="6"/>
-      <c r="B528" s="6"/>
-      <c r="C528" s="6"/>
+      <c r="A528" s="7"/>
+      <c r="B528" s="7"/>
+      <c r="C528" s="7"/>
     </row>
     <row r="529">
-      <c r="A529" s="6"/>
-      <c r="B529" s="6"/>
-      <c r="C529" s="6"/>
+      <c r="A529" s="7"/>
+      <c r="B529" s="7"/>
+      <c r="C529" s="7"/>
     </row>
     <row r="530">
-      <c r="A530" s="6"/>
-      <c r="B530" s="6"/>
-      <c r="C530" s="6"/>
+      <c r="A530" s="7"/>
+      <c r="B530" s="7"/>
+      <c r="C530" s="7"/>
     </row>
     <row r="531">
-      <c r="A531" s="6"/>
-      <c r="B531" s="6"/>
-      <c r="C531" s="6"/>
+      <c r="A531" s="7"/>
+      <c r="B531" s="7"/>
+      <c r="C531" s="7"/>
     </row>
     <row r="532">
-      <c r="A532" s="6"/>
-      <c r="B532" s="6"/>
-      <c r="C532" s="6"/>
+      <c r="A532" s="7"/>
+      <c r="B532" s="7"/>
+      <c r="C532" s="7"/>
     </row>
     <row r="533">
-      <c r="A533" s="6"/>
-      <c r="B533" s="6"/>
-      <c r="C533" s="6"/>
+      <c r="A533" s="7"/>
+      <c r="B533" s="7"/>
+      <c r="C533" s="7"/>
     </row>
     <row r="534">
-      <c r="A534" s="6"/>
-      <c r="B534" s="6"/>
-      <c r="C534" s="6"/>
+      <c r="A534" s="7"/>
+      <c r="B534" s="7"/>
+      <c r="C534" s="7"/>
     </row>
     <row r="535">
-      <c r="A535" s="6"/>
-      <c r="B535" s="6"/>
-      <c r="C535" s="6"/>
+      <c r="A535" s="7"/>
+      <c r="B535" s="7"/>
+      <c r="C535" s="7"/>
     </row>
     <row r="536">
-      <c r="A536" s="6"/>
-      <c r="B536" s="6"/>
-      <c r="C536" s="6"/>
+      <c r="A536" s="7"/>
+      <c r="B536" s="7"/>
+      <c r="C536" s="7"/>
     </row>
     <row r="537">
-      <c r="A537" s="6"/>
-      <c r="B537" s="6"/>
-      <c r="C537" s="6"/>
+      <c r="A537" s="7"/>
+      <c r="B537" s="7"/>
+      <c r="C537" s="7"/>
     </row>
     <row r="538">
-      <c r="A538" s="6"/>
-      <c r="B538" s="6"/>
-      <c r="C538" s="6"/>
+      <c r="A538" s="7"/>
+      <c r="B538" s="7"/>
+      <c r="C538" s="7"/>
     </row>
     <row r="539">
-      <c r="A539" s="6"/>
-      <c r="B539" s="6"/>
-      <c r="C539" s="6"/>
+      <c r="A539" s="7"/>
+      <c r="B539" s="7"/>
+      <c r="C539" s="7"/>
     </row>
     <row r="540">
-      <c r="A540" s="6"/>
-      <c r="B540" s="6"/>
-      <c r="C540" s="6"/>
+      <c r="A540" s="7"/>
+      <c r="B540" s="7"/>
+      <c r="C540" s="7"/>
     </row>
     <row r="541">
-      <c r="A541" s="6"/>
-      <c r="B541" s="6"/>
-      <c r="C541" s="6"/>
+      <c r="A541" s="7"/>
+      <c r="B541" s="7"/>
+      <c r="C541" s="7"/>
     </row>
     <row r="542">
-      <c r="A542" s="6"/>
-      <c r="B542" s="6"/>
-      <c r="C542" s="6"/>
+      <c r="A542" s="7"/>
+      <c r="B542" s="7"/>
+      <c r="C542" s="7"/>
     </row>
     <row r="543">
-      <c r="A543" s="6"/>
-      <c r="B543" s="6"/>
-      <c r="C543" s="6"/>
+      <c r="A543" s="7"/>
+      <c r="B543" s="7"/>
+      <c r="C543" s="7"/>
     </row>
     <row r="544">
-      <c r="A544" s="6"/>
-      <c r="B544" s="6"/>
-      <c r="C544" s="6"/>
+      <c r="A544" s="7"/>
+      <c r="B544" s="7"/>
+      <c r="C544" s="7"/>
     </row>
     <row r="545">
-      <c r="A545" s="6"/>
-      <c r="B545" s="6"/>
-      <c r="C545" s="6"/>
+      <c r="A545" s="7"/>
+      <c r="B545" s="7"/>
+      <c r="C545" s="7"/>
     </row>
     <row r="546">
-      <c r="A546" s="6"/>
-      <c r="B546" s="6"/>
-      <c r="C546" s="6"/>
+      <c r="A546" s="7"/>
+      <c r="B546" s="7"/>
+      <c r="C546" s="7"/>
     </row>
     <row r="547">
-      <c r="A547" s="6"/>
-      <c r="B547" s="6"/>
-      <c r="C547" s="6"/>
+      <c r="A547" s="7"/>
+      <c r="B547" s="7"/>
+      <c r="C547" s="7"/>
     </row>
     <row r="548">
-      <c r="A548" s="6"/>
-      <c r="B548" s="6"/>
-      <c r="C548" s="6"/>
+      <c r="A548" s="7"/>
+      <c r="B548" s="7"/>
+      <c r="C548" s="7"/>
     </row>
     <row r="549">
-      <c r="A549" s="6"/>
-      <c r="B549" s="6"/>
-      <c r="C549" s="6"/>
+      <c r="A549" s="7"/>
+      <c r="B549" s="7"/>
+      <c r="C549" s="7"/>
     </row>
     <row r="550">
-      <c r="A550" s="6"/>
-      <c r="B550" s="6"/>
-      <c r="C550" s="6"/>
+      <c r="A550" s="7"/>
+      <c r="B550" s="7"/>
+      <c r="C550" s="7"/>
     </row>
     <row r="551">
-      <c r="A551" s="6"/>
-      <c r="B551" s="6"/>
-      <c r="C551" s="6"/>
+      <c r="A551" s="7"/>
+      <c r="B551" s="7"/>
+      <c r="C551" s="7"/>
     </row>
     <row r="552">
-      <c r="A552" s="6"/>
-      <c r="B552" s="6"/>
-      <c r="C552" s="6"/>
+      <c r="A552" s="7"/>
+      <c r="B552" s="7"/>
+      <c r="C552" s="7"/>
     </row>
     <row r="553">
-      <c r="A553" s="6"/>
-      <c r="B553" s="6"/>
-      <c r="C553" s="6"/>
+      <c r="A553" s="7"/>
+      <c r="B553" s="7"/>
+      <c r="C553" s="7"/>
     </row>
     <row r="554">
-      <c r="A554" s="6"/>
-      <c r="B554" s="6"/>
-      <c r="C554" s="6"/>
+      <c r="A554" s="7"/>
+      <c r="B554" s="7"/>
+      <c r="C554" s="7"/>
     </row>
     <row r="555">
-      <c r="A555" s="6"/>
-      <c r="B555" s="6"/>
-      <c r="C555" s="6"/>
+      <c r="A555" s="7"/>
+      <c r="B555" s="7"/>
+      <c r="C555" s="7"/>
     </row>
     <row r="556">
-      <c r="A556" s="6"/>
-      <c r="B556" s="6"/>
-      <c r="C556" s="6"/>
+      <c r="A556" s="7"/>
+      <c r="B556" s="7"/>
+      <c r="C556" s="7"/>
     </row>
     <row r="557">
-      <c r="A557" s="6"/>
-      <c r="B557" s="6"/>
-      <c r="C557" s="6"/>
+      <c r="A557" s="7"/>
+      <c r="B557" s="7"/>
+      <c r="C557" s="7"/>
     </row>
     <row r="558">
-      <c r="A558" s="6"/>
-      <c r="B558" s="6"/>
-      <c r="C558" s="6"/>
+      <c r="A558" s="7"/>
+      <c r="B558" s="7"/>
+      <c r="C558" s="7"/>
     </row>
     <row r="559">
-      <c r="A559" s="6"/>
-      <c r="B559" s="6"/>
-      <c r="C559" s="6"/>
+      <c r="A559" s="7"/>
+      <c r="B559" s="7"/>
+      <c r="C559" s="7"/>
     </row>
     <row r="560">
-      <c r="A560" s="6"/>
-      <c r="B560" s="6"/>
-      <c r="C560" s="6"/>
+      <c r="A560" s="7"/>
+      <c r="B560" s="7"/>
+      <c r="C560" s="7"/>
     </row>
     <row r="561">
-      <c r="A561" s="6"/>
-      <c r="B561" s="6"/>
-      <c r="C561" s="6"/>
+      <c r="A561" s="7"/>
+      <c r="B561" s="7"/>
+      <c r="C561" s="7"/>
     </row>
     <row r="562">
-      <c r="A562" s="6"/>
-      <c r="B562" s="6"/>
-      <c r="C562" s="6"/>
+      <c r="A562" s="7"/>
+      <c r="B562" s="7"/>
+      <c r="C562" s="7"/>
     </row>
     <row r="563">
-      <c r="A563" s="6"/>
-      <c r="B563" s="6"/>
-      <c r="C563" s="6"/>
+      <c r="A563" s="7"/>
+      <c r="B563" s="7"/>
+      <c r="C563" s="7"/>
     </row>
     <row r="564">
-      <c r="A564" s="6"/>
-      <c r="B564" s="6"/>
-      <c r="C564" s="6"/>
+      <c r="A564" s="7"/>
+      <c r="B564" s="7"/>
+      <c r="C564" s="7"/>
     </row>
     <row r="565">
-      <c r="A565" s="6"/>
-      <c r="B565" s="6"/>
-      <c r="C565" s="6"/>
+      <c r="A565" s="7"/>
+      <c r="B565" s="7"/>
+      <c r="C565" s="7"/>
     </row>
     <row r="566">
-      <c r="A566" s="6"/>
-      <c r="B566" s="6"/>
-      <c r="C566" s="6"/>
+      <c r="A566" s="7"/>
+      <c r="B566" s="7"/>
+      <c r="C566" s="7"/>
     </row>
     <row r="567">
-      <c r="A567" s="6"/>
-      <c r="B567" s="6"/>
-      <c r="C567" s="6"/>
+      <c r="A567" s="7"/>
+      <c r="B567" s="7"/>
+      <c r="C567" s="7"/>
     </row>
     <row r="568">
-      <c r="A568" s="6"/>
-      <c r="B568" s="6"/>
-      <c r="C568" s="6"/>
+      <c r="A568" s="7"/>
+      <c r="B568" s="7"/>
+      <c r="C568" s="7"/>
     </row>
     <row r="569">
-      <c r="A569" s="6"/>
-      <c r="B569" s="6"/>
-      <c r="C569" s="6"/>
+      <c r="A569" s="7"/>
+      <c r="B569" s="7"/>
+      <c r="C569" s="7"/>
     </row>
     <row r="570">
-      <c r="A570" s="6"/>
-      <c r="B570" s="6"/>
-      <c r="C570" s="6"/>
+      <c r="A570" s="7"/>
+      <c r="B570" s="7"/>
+      <c r="C570" s="7"/>
     </row>
     <row r="571">
-      <c r="A571" s="6"/>
-      <c r="B571" s="6"/>
-      <c r="C571" s="6"/>
+      <c r="A571" s="7"/>
+      <c r="B571" s="7"/>
+      <c r="C571" s="7"/>
     </row>
     <row r="572">
-      <c r="A572" s="6"/>
-      <c r="B572" s="6"/>
-      <c r="C572" s="6"/>
+      <c r="A572" s="7"/>
+      <c r="B572" s="7"/>
+      <c r="C572" s="7"/>
     </row>
     <row r="573">
-      <c r="A573" s="6"/>
-      <c r="B573" s="6"/>
-      <c r="C573" s="6"/>
+      <c r="A573" s="7"/>
+      <c r="B573" s="7"/>
+      <c r="C573" s="7"/>
     </row>
     <row r="574">
-      <c r="A574" s="6"/>
-      <c r="B574" s="6"/>
-      <c r="C574" s="6"/>
+      <c r="A574" s="7"/>
+      <c r="B574" s="7"/>
+      <c r="C574" s="7"/>
     </row>
     <row r="575">
-      <c r="A575" s="6"/>
-      <c r="B575" s="6"/>
-      <c r="C575" s="6"/>
+      <c r="A575" s="7"/>
+      <c r="B575" s="7"/>
+      <c r="C575" s="7"/>
     </row>
     <row r="576">
-      <c r="A576" s="6"/>
-      <c r="B576" s="6"/>
-      <c r="C576" s="6"/>
+      <c r="A576" s="7"/>
+      <c r="B576" s="7"/>
+      <c r="C576" s="7"/>
     </row>
     <row r="577">
-      <c r="A577" s="6"/>
-      <c r="B577" s="6"/>
-      <c r="C577" s="6"/>
+      <c r="A577" s="7"/>
+      <c r="B577" s="7"/>
+      <c r="C577" s="7"/>
     </row>
     <row r="578">
-      <c r="A578" s="6"/>
-      <c r="B578" s="6"/>
-      <c r="C578" s="6"/>
+      <c r="A578" s="7"/>
+      <c r="B578" s="7"/>
+      <c r="C578" s="7"/>
     </row>
     <row r="579">
-      <c r="A579" s="6"/>
-      <c r="B579" s="6"/>
-      <c r="C579" s="6"/>
+      <c r="A579" s="7"/>
+      <c r="B579" s="7"/>
+      <c r="C579" s="7"/>
     </row>
     <row r="580">
-      <c r="A580" s="6"/>
-      <c r="B580" s="6"/>
-      <c r="C580" s="6"/>
+      <c r="A580" s="7"/>
+      <c r="B580" s="7"/>
+      <c r="C580" s="7"/>
     </row>
     <row r="581">
-      <c r="A581" s="6"/>
-      <c r="B581" s="6"/>
-      <c r="C581" s="6"/>
+      <c r="A581" s="7"/>
+      <c r="B581" s="7"/>
+      <c r="C581" s="7"/>
     </row>
     <row r="582">
-      <c r="A582" s="6"/>
-      <c r="B582" s="6"/>
-      <c r="C582" s="6"/>
+      <c r="A582" s="7"/>
+      <c r="B582" s="7"/>
+      <c r="C582" s="7"/>
     </row>
     <row r="583">
-      <c r="A583" s="6"/>
-      <c r="B583" s="6"/>
-      <c r="C583" s="6"/>
+      <c r="A583" s="7"/>
+      <c r="B583" s="7"/>
+      <c r="C583" s="7"/>
     </row>
     <row r="584">
-      <c r="A584" s="6"/>
-      <c r="B584" s="6"/>
-      <c r="C584" s="6"/>
+      <c r="A584" s="7"/>
+      <c r="B584" s="7"/>
+      <c r="C584" s="7"/>
     </row>
     <row r="585">
-      <c r="A585" s="6"/>
-      <c r="B585" s="6"/>
-      <c r="C585" s="6"/>
+      <c r="A585" s="7"/>
+      <c r="B585" s="7"/>
+      <c r="C585" s="7"/>
     </row>
     <row r="586">
-      <c r="A586" s="6"/>
-      <c r="B586" s="6"/>
-      <c r="C586" s="6"/>
+      <c r="A586" s="7"/>
+      <c r="B586" s="7"/>
+      <c r="C586" s="7"/>
     </row>
     <row r="587">
-      <c r="A587" s="6"/>
-      <c r="B587" s="6"/>
-      <c r="C587" s="6"/>
+      <c r="A587" s="7"/>
+      <c r="B587" s="7"/>
+      <c r="C587" s="7"/>
     </row>
     <row r="588">
-      <c r="A588" s="6"/>
-      <c r="B588" s="6"/>
-      <c r="C588" s="6"/>
+      <c r="A588" s="7"/>
+      <c r="B588" s="7"/>
+      <c r="C588" s="7"/>
     </row>
     <row r="589">
-      <c r="A589" s="6"/>
-      <c r="B589" s="6"/>
-      <c r="C589" s="6"/>
+      <c r="A589" s="7"/>
+      <c r="B589" s="7"/>
+      <c r="C589" s="7"/>
     </row>
     <row r="590">
-      <c r="A590" s="6"/>
-      <c r="B590" s="6"/>
-      <c r="C590" s="6"/>
+      <c r="A590" s="7"/>
+      <c r="B590" s="7"/>
+      <c r="C590" s="7"/>
     </row>
     <row r="591">
-      <c r="A591" s="6"/>
-      <c r="B591" s="6"/>
-      <c r="C591" s="6"/>
+      <c r="A591" s="7"/>
+      <c r="B591" s="7"/>
+      <c r="C591" s="7"/>
     </row>
     <row r="592">
-      <c r="A592" s="6"/>
-      <c r="B592" s="6"/>
-      <c r="C592" s="6"/>
+      <c r="A592" s="7"/>
+      <c r="B592" s="7"/>
+      <c r="C592" s="7"/>
     </row>
     <row r="593">
-      <c r="A593" s="6"/>
-      <c r="B593" s="6"/>
-      <c r="C593" s="6"/>
+      <c r="A593" s="7"/>
+      <c r="B593" s="7"/>
+      <c r="C593" s="7"/>
     </row>
     <row r="594">
-      <c r="A594" s="6"/>
-      <c r="B594" s="6"/>
-      <c r="C594" s="6"/>
+      <c r="A594" s="7"/>
+      <c r="B594" s="7"/>
+      <c r="C594" s="7"/>
     </row>
     <row r="595">
-      <c r="A595" s="6"/>
-      <c r="B595" s="6"/>
-      <c r="C595" s="6"/>
+      <c r="A595" s="7"/>
+      <c r="B595" s="7"/>
+      <c r="C595" s="7"/>
     </row>
     <row r="596">
-      <c r="A596" s="6"/>
-      <c r="B596" s="6"/>
-      <c r="C596" s="6"/>
+      <c r="A596" s="7"/>
+      <c r="B596" s="7"/>
+      <c r="C596" s="7"/>
     </row>
     <row r="597">
-      <c r="A597" s="6"/>
-      <c r="B597" s="6"/>
-      <c r="C597" s="6"/>
+      <c r="A597" s="7"/>
+      <c r="B597" s="7"/>
+      <c r="C597" s="7"/>
     </row>
     <row r="598">
-      <c r="A598" s="6"/>
-      <c r="B598" s="6"/>
-      <c r="C598" s="6"/>
+      <c r="A598" s="7"/>
+      <c r="B598" s="7"/>
+      <c r="C598" s="7"/>
     </row>
     <row r="599">
-      <c r="A599" s="6"/>
-      <c r="B599" s="6"/>
-      <c r="C599" s="6"/>
+      <c r="A599" s="7"/>
+      <c r="B599" s="7"/>
+      <c r="C599" s="7"/>
     </row>
     <row r="600">
-      <c r="A600" s="6"/>
-      <c r="B600" s="6"/>
-      <c r="C600" s="6"/>
+      <c r="A600" s="7"/>
+      <c r="B600" s="7"/>
+      <c r="C600" s="7"/>
     </row>
     <row r="601">
-      <c r="A601" s="6"/>
-      <c r="B601" s="6"/>
-      <c r="C601" s="6"/>
+      <c r="A601" s="7"/>
+      <c r="B601" s="7"/>
+      <c r="C601" s="7"/>
     </row>
     <row r="602">
-      <c r="A602" s="6"/>
-      <c r="B602" s="6"/>
-      <c r="C602" s="6"/>
+      <c r="A602" s="7"/>
+      <c r="B602" s="7"/>
+      <c r="C602" s="7"/>
     </row>
     <row r="603">
-      <c r="A603" s="6"/>
-      <c r="B603" s="6"/>
-      <c r="C603" s="6"/>
+      <c r="A603" s="7"/>
+      <c r="B603" s="7"/>
+      <c r="C603" s="7"/>
     </row>
     <row r="604">
-      <c r="A604" s="6"/>
-      <c r="B604" s="6"/>
-      <c r="C604" s="6"/>
+      <c r="A604" s="7"/>
+      <c r="B604" s="7"/>
+      <c r="C604" s="7"/>
     </row>
     <row r="605">
-      <c r="A605" s="6"/>
-      <c r="B605" s="6"/>
-      <c r="C605" s="6"/>
+      <c r="A605" s="7"/>
+      <c r="B605" s="7"/>
+      <c r="C605" s="7"/>
     </row>
     <row r="606">
-      <c r="A606" s="6"/>
-      <c r="B606" s="6"/>
-      <c r="C606" s="6"/>
+      <c r="A606" s="7"/>
+      <c r="B606" s="7"/>
+      <c r="C606" s="7"/>
     </row>
     <row r="607">
-      <c r="A607" s="6"/>
-      <c r="B607" s="6"/>
-      <c r="C607" s="6"/>
+      <c r="A607" s="7"/>
+      <c r="B607" s="7"/>
+      <c r="C607" s="7"/>
     </row>
     <row r="608">
-      <c r="A608" s="6"/>
-      <c r="B608" s="6"/>
-      <c r="C608" s="6"/>
+      <c r="A608" s="7"/>
+      <c r="B608" s="7"/>
+      <c r="C608" s="7"/>
     </row>
     <row r="609">
-      <c r="A609" s="6"/>
-      <c r="B609" s="6"/>
-      <c r="C609" s="6"/>
+      <c r="A609" s="7"/>
+      <c r="B609" s="7"/>
+      <c r="C609" s="7"/>
     </row>
     <row r="610">
-      <c r="A610" s="6"/>
-      <c r="B610" s="6"/>
-      <c r="C610" s="6"/>
+      <c r="A610" s="7"/>
+      <c r="B610" s="7"/>
+      <c r="C610" s="7"/>
     </row>
     <row r="611">
-      <c r="A611" s="6"/>
-      <c r="B611" s="6"/>
-      <c r="C611" s="6"/>
+      <c r="A611" s="7"/>
+      <c r="B611" s="7"/>
+      <c r="C611" s="7"/>
     </row>
     <row r="612">
-      <c r="A612" s="6"/>
-      <c r="B612" s="6"/>
-      <c r="C612" s="6"/>
+      <c r="A612" s="7"/>
+      <c r="B612" s="7"/>
+      <c r="C612" s="7"/>
     </row>
     <row r="613">
-      <c r="A613" s="6"/>
-      <c r="B613" s="6"/>
-      <c r="C613" s="6"/>
+      <c r="A613" s="7"/>
+      <c r="B613" s="7"/>
+      <c r="C613" s="7"/>
     </row>
     <row r="614">
-      <c r="A614" s="6"/>
-      <c r="B614" s="6"/>
-      <c r="C614" s="6"/>
+      <c r="A614" s="7"/>
+      <c r="B614" s="7"/>
+      <c r="C614" s="7"/>
     </row>
     <row r="615">
-      <c r="A615" s="6"/>
-      <c r="B615" s="6"/>
-      <c r="C615" s="6"/>
+      <c r="A615" s="7"/>
+      <c r="B615" s="7"/>
+      <c r="C615" s="7"/>
     </row>
     <row r="616">
-      <c r="A616" s="6"/>
-      <c r="B616" s="6"/>
-      <c r="C616" s="6"/>
+      <c r="A616" s="7"/>
+      <c r="B616" s="7"/>
+      <c r="C616" s="7"/>
     </row>
     <row r="617">
-      <c r="A617" s="6"/>
-      <c r="B617" s="6"/>
-      <c r="C617" s="6"/>
+      <c r="A617" s="7"/>
+      <c r="B617" s="7"/>
+      <c r="C617" s="7"/>
     </row>
     <row r="618">
-      <c r="A618" s="6"/>
-      <c r="B618" s="6"/>
-      <c r="C618" s="6"/>
+      <c r="A618" s="7"/>
+      <c r="B618" s="7"/>
+      <c r="C618" s="7"/>
     </row>
     <row r="619">
-      <c r="A619" s="6"/>
-      <c r="B619" s="6"/>
-      <c r="C619" s="6"/>
+      <c r="A619" s="7"/>
+      <c r="B619" s="7"/>
+      <c r="C619" s="7"/>
     </row>
     <row r="620">
-      <c r="A620" s="6"/>
-      <c r="B620" s="6"/>
-      <c r="C620" s="6"/>
+      <c r="A620" s="7"/>
+      <c r="B620" s="7"/>
+      <c r="C620" s="7"/>
     </row>
     <row r="621">
-      <c r="A621" s="6"/>
-      <c r="B621" s="6"/>
-      <c r="C621" s="6"/>
+      <c r="A621" s="7"/>
+      <c r="B621" s="7"/>
+      <c r="C621" s="7"/>
     </row>
     <row r="622">
-      <c r="A622" s="6"/>
-      <c r="B622" s="6"/>
-      <c r="C622" s="6"/>
+      <c r="A622" s="7"/>
+      <c r="B622" s="7"/>
+      <c r="C622" s="7"/>
     </row>
     <row r="623">
-      <c r="A623" s="6"/>
-      <c r="B623" s="6"/>
-      <c r="C623" s="6"/>
+      <c r="A623" s="7"/>
+      <c r="B623" s="7"/>
+      <c r="C623" s="7"/>
     </row>
     <row r="624">
-      <c r="A624" s="6"/>
-      <c r="B624" s="6"/>
-      <c r="C624" s="6"/>
+      <c r="A624" s="7"/>
+      <c r="B624" s="7"/>
+      <c r="C624" s="7"/>
     </row>
     <row r="625">
-      <c r="A625" s="6"/>
-      <c r="B625" s="6"/>
-      <c r="C625" s="6"/>
+      <c r="A625" s="7"/>
+      <c r="B625" s="7"/>
+      <c r="C625" s="7"/>
     </row>
     <row r="626">
-      <c r="A626" s="6"/>
-      <c r="B626" s="6"/>
-      <c r="C626" s="6"/>
+      <c r="A626" s="7"/>
+      <c r="B626" s="7"/>
+      <c r="C626" s="7"/>
     </row>
     <row r="627">
-      <c r="A627" s="6"/>
-      <c r="B627" s="6"/>
-      <c r="C627" s="6"/>
+      <c r="A627" s="7"/>
+      <c r="B627" s="7"/>
+      <c r="C627" s="7"/>
     </row>
     <row r="628">
-      <c r="A628" s="6"/>
-      <c r="B628" s="6"/>
-      <c r="C628" s="6"/>
+      <c r="A628" s="7"/>
+      <c r="B628" s="7"/>
+      <c r="C628" s="7"/>
     </row>
     <row r="629">
-      <c r="A629" s="6"/>
-      <c r="B629" s="6"/>
-      <c r="C629" s="6"/>
+      <c r="A629" s="7"/>
+      <c r="B629" s="7"/>
+      <c r="C629" s="7"/>
     </row>
     <row r="630">
-      <c r="A630" s="6"/>
-      <c r="B630" s="6"/>
-      <c r="C630" s="6"/>
+      <c r="A630" s="7"/>
+      <c r="B630" s="7"/>
+      <c r="C630" s="7"/>
     </row>
     <row r="631">
-      <c r="A631" s="6"/>
-      <c r="B631" s="6"/>
-      <c r="C631" s="6"/>
+      <c r="A631" s="7"/>
+      <c r="B631" s="7"/>
+      <c r="C631" s="7"/>
     </row>
     <row r="632">
-      <c r="A632" s="6"/>
-      <c r="B632" s="6"/>
-      <c r="C632" s="6"/>
+      <c r="A632" s="7"/>
+      <c r="B632" s="7"/>
+      <c r="C632" s="7"/>
     </row>
     <row r="633">
-      <c r="A633" s="6"/>
-      <c r="B633" s="6"/>
-      <c r="C633" s="6"/>
+      <c r="A633" s="7"/>
+      <c r="B633" s="7"/>
+      <c r="C633" s="7"/>
     </row>
     <row r="634">
-      <c r="A634" s="6"/>
-      <c r="B634" s="6"/>
-      <c r="C634" s="6"/>
+      <c r="A634" s="7"/>
+      <c r="B634" s="7"/>
+      <c r="C634" s="7"/>
     </row>
     <row r="635">
-      <c r="A635" s="6"/>
-      <c r="B635" s="6"/>
-      <c r="C635" s="6"/>
+      <c r="A635" s="7"/>
+      <c r="B635" s="7"/>
+      <c r="C635" s="7"/>
     </row>
     <row r="636">
-      <c r="A636" s="6"/>
-      <c r="B636" s="6"/>
-      <c r="C636" s="6"/>
+      <c r="A636" s="7"/>
+      <c r="B636" s="7"/>
+      <c r="C636" s="7"/>
     </row>
     <row r="637">
-      <c r="A637" s="6"/>
-      <c r="B637" s="6"/>
-      <c r="C637" s="6"/>
+      <c r="A637" s="7"/>
+      <c r="B637" s="7"/>
+      <c r="C637" s="7"/>
     </row>
     <row r="638">
-      <c r="A638" s="6"/>
-      <c r="B638" s="6"/>
-      <c r="C638" s="6"/>
+      <c r="A638" s="7"/>
+      <c r="B638" s="7"/>
+      <c r="C638" s="7"/>
     </row>
     <row r="639">
-      <c r="A639" s="6"/>
-      <c r="B639" s="6"/>
-      <c r="C639" s="6"/>
+      <c r="A639" s="7"/>
+      <c r="B639" s="7"/>
+      <c r="C639" s="7"/>
     </row>
     <row r="640">
-      <c r="A640" s="6"/>
-      <c r="B640" s="6"/>
-      <c r="C640" s="6"/>
+      <c r="A640" s="7"/>
+      <c r="B640" s="7"/>
+      <c r="C640" s="7"/>
     </row>
     <row r="641">
-      <c r="A641" s="6"/>
-      <c r="B641" s="6"/>
-      <c r="C641" s="6"/>
+      <c r="A641" s="7"/>
+      <c r="B641" s="7"/>
+      <c r="C641" s="7"/>
     </row>
     <row r="642">
-      <c r="A642" s="6"/>
-      <c r="B642" s="6"/>
-      <c r="C642" s="6"/>
+      <c r="A642" s="7"/>
+      <c r="B642" s="7"/>
+      <c r="C642" s="7"/>
     </row>
     <row r="643">
-      <c r="A643" s="6"/>
-      <c r="B643" s="6"/>
-      <c r="C643" s="6"/>
+      <c r="A643" s="7"/>
+      <c r="B643" s="7"/>
+      <c r="C643" s="7"/>
     </row>
     <row r="644">
-      <c r="A644" s="6"/>
-      <c r="B644" s="6"/>
-      <c r="C644" s="6"/>
+      <c r="A644" s="7"/>
+      <c r="B644" s="7"/>
+      <c r="C644" s="7"/>
     </row>
     <row r="645">
-      <c r="A645" s="6"/>
-      <c r="B645" s="6"/>
-      <c r="C645" s="6"/>
+      <c r="A645" s="7"/>
+      <c r="B645" s="7"/>
+      <c r="C645" s="7"/>
     </row>
     <row r="646">
-      <c r="A646" s="6"/>
-      <c r="B646" s="6"/>
-      <c r="C646" s="6"/>
+      <c r="A646" s="7"/>
+      <c r="B646" s="7"/>
+      <c r="C646" s="7"/>
     </row>
     <row r="647">
-      <c r="A647" s="6"/>
-      <c r="B647" s="6"/>
-      <c r="C647" s="6"/>
+      <c r="A647" s="7"/>
+      <c r="B647" s="7"/>
+      <c r="C647" s="7"/>
     </row>
     <row r="648">
-      <c r="A648" s="6"/>
-      <c r="B648" s="6"/>
-      <c r="C648" s="6"/>
+      <c r="A648" s="7"/>
+      <c r="B648" s="7"/>
+      <c r="C648" s="7"/>
     </row>
     <row r="649">
-      <c r="A649" s="6"/>
-      <c r="B649" s="6"/>
-      <c r="C649" s="6"/>
+      <c r="A649" s="7"/>
+      <c r="B649" s="7"/>
+      <c r="C649" s="7"/>
     </row>
     <row r="650">
-      <c r="A650" s="6"/>
-      <c r="B650" s="6"/>
-      <c r="C650" s="6"/>
+      <c r="A650" s="7"/>
+      <c r="B650" s="7"/>
+      <c r="C650" s="7"/>
     </row>
     <row r="651">
-      <c r="A651" s="6"/>
-      <c r="B651" s="6"/>
-      <c r="C651" s="6"/>
+      <c r="A651" s="7"/>
+      <c r="B651" s="7"/>
+      <c r="C651" s="7"/>
     </row>
     <row r="652">
-      <c r="A652" s="6"/>
-      <c r="B652" s="6"/>
-      <c r="C652" s="6"/>
+      <c r="A652" s="7"/>
+      <c r="B652" s="7"/>
+      <c r="C652" s="7"/>
     </row>
     <row r="653">
-      <c r="A653" s="6"/>
-      <c r="B653" s="6"/>
-      <c r="C653" s="6"/>
+      <c r="A653" s="7"/>
+      <c r="B653" s="7"/>
+      <c r="C653" s="7"/>
     </row>
     <row r="654">
-      <c r="A654" s="6"/>
-      <c r="B654" s="6"/>
-      <c r="C654" s="6"/>
+      <c r="A654" s="7"/>
+      <c r="B654" s="7"/>
+      <c r="C654" s="7"/>
     </row>
     <row r="655">
-      <c r="A655" s="6"/>
-      <c r="B655" s="6"/>
-      <c r="C655" s="6"/>
+      <c r="A655" s="7"/>
+      <c r="B655" s="7"/>
+      <c r="C655" s="7"/>
     </row>
     <row r="656">
-      <c r="A656" s="6"/>
-      <c r="B656" s="6"/>
-      <c r="C656" s="6"/>
+      <c r="A656" s="7"/>
+      <c r="B656" s="7"/>
+      <c r="C656" s="7"/>
     </row>
     <row r="657">
-      <c r="A657" s="6"/>
-      <c r="B657" s="6"/>
-      <c r="C657" s="6"/>
+      <c r="A657" s="7"/>
+      <c r="B657" s="7"/>
+      <c r="C657" s="7"/>
     </row>
     <row r="658">
-      <c r="A658" s="6"/>
-      <c r="B658" s="6"/>
-      <c r="C658" s="6"/>
+      <c r="A658" s="7"/>
+      <c r="B658" s="7"/>
+      <c r="C658" s="7"/>
     </row>
     <row r="659">
-      <c r="A659" s="6"/>
-      <c r="B659" s="6"/>
-      <c r="C659" s="6"/>
+      <c r="A659" s="7"/>
+      <c r="B659" s="7"/>
+      <c r="C659" s="7"/>
     </row>
     <row r="660">
-      <c r="A660" s="6"/>
-      <c r="B660" s="6"/>
-      <c r="C660" s="6"/>
+      <c r="A660" s="7"/>
+      <c r="B660" s="7"/>
+      <c r="C660" s="7"/>
     </row>
     <row r="661">
-      <c r="A661" s="6"/>
-      <c r="B661" s="6"/>
-      <c r="C661" s="6"/>
+      <c r="A661" s="7"/>
+      <c r="B661" s="7"/>
+      <c r="C661" s="7"/>
     </row>
     <row r="662">
-      <c r="A662" s="6"/>
-      <c r="B662" s="6"/>
-      <c r="C662" s="6"/>
+      <c r="A662" s="7"/>
+      <c r="B662" s="7"/>
+      <c r="C662" s="7"/>
     </row>
     <row r="663">
-      <c r="A663" s="6"/>
-      <c r="B663" s="6"/>
-      <c r="C663" s="6"/>
+      <c r="A663" s="7"/>
+      <c r="B663" s="7"/>
+      <c r="C663" s="7"/>
     </row>
     <row r="664">
-      <c r="A664" s="6"/>
-      <c r="B664" s="6"/>
-      <c r="C664" s="6"/>
+      <c r="A664" s="7"/>
+      <c r="B664" s="7"/>
+      <c r="C664" s="7"/>
     </row>
     <row r="665">
-      <c r="A665" s="6"/>
-      <c r="B665" s="6"/>
-      <c r="C665" s="6"/>
+      <c r="A665" s="7"/>
+      <c r="B665" s="7"/>
+      <c r="C665" s="7"/>
     </row>
     <row r="666">
-      <c r="A666" s="6"/>
-      <c r="B666" s="6"/>
-      <c r="C666" s="6"/>
+      <c r="A666" s="7"/>
+      <c r="B666" s="7"/>
+      <c r="C666" s="7"/>
     </row>
     <row r="667">
-      <c r="A667" s="6"/>
-      <c r="B667" s="6"/>
-      <c r="C667" s="6"/>
+      <c r="A667" s="7"/>
+      <c r="B667" s="7"/>
+      <c r="C667" s="7"/>
     </row>
     <row r="668">
-      <c r="A668" s="6"/>
-      <c r="B668" s="6"/>
-      <c r="C668" s="6"/>
+      <c r="A668" s="7"/>
+      <c r="B668" s="7"/>
+      <c r="C668" s="7"/>
     </row>
     <row r="669">
-      <c r="A669" s="6"/>
-      <c r="B669" s="6"/>
-      <c r="C669" s="6"/>
+      <c r="A669" s="7"/>
+      <c r="B669" s="7"/>
+      <c r="C669" s="7"/>
     </row>
     <row r="670">
-      <c r="A670" s="6"/>
-      <c r="B670" s="6"/>
-      <c r="C670" s="6"/>
+      <c r="A670" s="7"/>
+      <c r="B670" s="7"/>
+      <c r="C670" s="7"/>
     </row>
     <row r="671">
-      <c r="A671" s="6"/>
-      <c r="B671" s="6"/>
-      <c r="C671" s="6"/>
+      <c r="A671" s="7"/>
+      <c r="B671" s="7"/>
+      <c r="C671" s="7"/>
     </row>
     <row r="672">
-      <c r="A672" s="6"/>
-      <c r="B672" s="6"/>
-      <c r="C672" s="6"/>
+      <c r="A672" s="7"/>
+      <c r="B672" s="7"/>
+      <c r="C672" s="7"/>
     </row>
     <row r="673">
-      <c r="A673" s="6"/>
-      <c r="B673" s="6"/>
-      <c r="C673" s="6"/>
+      <c r="A673" s="7"/>
+      <c r="B673" s="7"/>
+      <c r="C673" s="7"/>
     </row>
     <row r="674">
-      <c r="A674" s="6"/>
-      <c r="B674" s="6"/>
-      <c r="C674" s="6"/>
+      <c r="A674" s="7"/>
+      <c r="B674" s="7"/>
+      <c r="C674" s="7"/>
     </row>
     <row r="675">
-      <c r="A675" s="6"/>
-      <c r="B675" s="6"/>
-      <c r="C675" s="6"/>
+      <c r="A675" s="7"/>
+      <c r="B675" s="7"/>
+      <c r="C675" s="7"/>
     </row>
     <row r="676">
-      <c r="A676" s="6"/>
-      <c r="B676" s="6"/>
-      <c r="C676" s="6"/>
+      <c r="A676" s="7"/>
+      <c r="B676" s="7"/>
+      <c r="C676" s="7"/>
     </row>
     <row r="677">
-      <c r="A677" s="6"/>
-      <c r="B677" s="6"/>
-      <c r="C677" s="6"/>
+      <c r="A677" s="7"/>
+      <c r="B677" s="7"/>
+      <c r="C677" s="7"/>
     </row>
     <row r="678">
-      <c r="A678" s="6"/>
-      <c r="B678" s="6"/>
-      <c r="C678" s="6"/>
+      <c r="A678" s="7"/>
+      <c r="B678" s="7"/>
+      <c r="C678" s="7"/>
     </row>
     <row r="679">
-      <c r="A679" s="6"/>
-      <c r="B679" s="6"/>
-      <c r="C679" s="6"/>
+      <c r="A679" s="7"/>
+      <c r="B679" s="7"/>
+      <c r="C679" s="7"/>
     </row>
     <row r="680">
-      <c r="A680" s="6"/>
-      <c r="B680" s="6"/>
-      <c r="C680" s="6"/>
+      <c r="A680" s="7"/>
+      <c r="B680" s="7"/>
+      <c r="C680" s="7"/>
     </row>
     <row r="681">
-      <c r="A681" s="6"/>
-      <c r="B681" s="6"/>
-      <c r="C681" s="6"/>
+      <c r="A681" s="7"/>
+      <c r="B681" s="7"/>
+      <c r="C681" s="7"/>
     </row>
     <row r="682">
-      <c r="A682" s="6"/>
-      <c r="B682" s="6"/>
-      <c r="C682" s="6"/>
+      <c r="A682" s="7"/>
+      <c r="B682" s="7"/>
+      <c r="C682" s="7"/>
     </row>
     <row r="683">
-      <c r="A683" s="6"/>
-      <c r="B683" s="6"/>
-      <c r="C683" s="6"/>
+      <c r="A683" s="7"/>
+      <c r="B683" s="7"/>
+      <c r="C683" s="7"/>
     </row>
     <row r="684">
-      <c r="A684" s="6"/>
-      <c r="B684" s="6"/>
-      <c r="C684" s="6"/>
+      <c r="A684" s="7"/>
+      <c r="B684" s="7"/>
+      <c r="C684" s="7"/>
     </row>
     <row r="685">
-      <c r="A685" s="6"/>
-      <c r="B685" s="6"/>
-      <c r="C685" s="6"/>
+      <c r="A685" s="7"/>
+      <c r="B685" s="7"/>
+      <c r="C685" s="7"/>
     </row>
     <row r="686">
-      <c r="A686" s="6"/>
-      <c r="B686" s="6"/>
-      <c r="C686" s="6"/>
+      <c r="A686" s="7"/>
+      <c r="B686" s="7"/>
+      <c r="C686" s="7"/>
     </row>
     <row r="687">
-      <c r="A687" s="6"/>
-      <c r="B687" s="6"/>
-      <c r="C687" s="6"/>
+      <c r="A687" s="7"/>
+      <c r="B687" s="7"/>
+      <c r="C687" s="7"/>
     </row>
     <row r="688">
-      <c r="A688" s="6"/>
-      <c r="B688" s="6"/>
-      <c r="C688" s="6"/>
+      <c r="A688" s="7"/>
+      <c r="B688" s="7"/>
+      <c r="C688" s="7"/>
     </row>
     <row r="689">
-      <c r="A689" s="6"/>
-      <c r="B689" s="6"/>
-      <c r="C689" s="6"/>
+      <c r="A689" s="7"/>
+      <c r="B689" s="7"/>
+      <c r="C689" s="7"/>
     </row>
     <row r="690">
-      <c r="A690" s="6"/>
-      <c r="B690" s="6"/>
-      <c r="C690" s="6"/>
+      <c r="A690" s="7"/>
+      <c r="B690" s="7"/>
+      <c r="C690" s="7"/>
     </row>
     <row r="691">
-      <c r="A691" s="6"/>
-      <c r="B691" s="6"/>
-      <c r="C691" s="6"/>
+      <c r="A691" s="7"/>
+      <c r="B691" s="7"/>
+      <c r="C691" s="7"/>
     </row>
     <row r="692">
-      <c r="A692" s="6"/>
-      <c r="B692" s="6"/>
-      <c r="C692" s="6"/>
+      <c r="A692" s="7"/>
+      <c r="B692" s="7"/>
+      <c r="C692" s="7"/>
     </row>
     <row r="693">
-      <c r="A693" s="6"/>
-      <c r="B693" s="6"/>
-      <c r="C693" s="6"/>
+      <c r="A693" s="7"/>
+      <c r="B693" s="7"/>
+      <c r="C693" s="7"/>
     </row>
     <row r="694">
-      <c r="A694" s="6"/>
-      <c r="B694" s="6"/>
-      <c r="C694" s="6"/>
+      <c r="A694" s="7"/>
+      <c r="B694" s="7"/>
+      <c r="C694" s="7"/>
     </row>
     <row r="695">
-      <c r="A695" s="6"/>
-      <c r="B695" s="6"/>
-      <c r="C695" s="6"/>
+      <c r="A695" s="7"/>
+      <c r="B695" s="7"/>
+      <c r="C695" s="7"/>
     </row>
     <row r="696">
-      <c r="A696" s="6"/>
-      <c r="B696" s="6"/>
-      <c r="C696" s="6"/>
+      <c r="A696" s="7"/>
+      <c r="B696" s="7"/>
+      <c r="C696" s="7"/>
     </row>
     <row r="697">
-      <c r="A697" s="6"/>
-      <c r="B697" s="6"/>
-      <c r="C697" s="6"/>
+      <c r="A697" s="7"/>
+      <c r="B697" s="7"/>
+      <c r="C697" s="7"/>
     </row>
     <row r="698">
-      <c r="A698" s="6"/>
-      <c r="B698" s="6"/>
-      <c r="C698" s="6"/>
+      <c r="A698" s="7"/>
+      <c r="B698" s="7"/>
+      <c r="C698" s="7"/>
     </row>
     <row r="699">
-      <c r="A699" s="6"/>
-      <c r="B699" s="6"/>
-      <c r="C699" s="6"/>
+      <c r="A699" s="7"/>
+      <c r="B699" s="7"/>
+      <c r="C699" s="7"/>
     </row>
     <row r="700">
-      <c r="A700" s="6"/>
-      <c r="B700" s="6"/>
-      <c r="C700" s="6"/>
+      <c r="A700" s="7"/>
+      <c r="B700" s="7"/>
+      <c r="C700" s="7"/>
     </row>
     <row r="701">
-      <c r="A701" s="6"/>
-      <c r="B701" s="6"/>
-      <c r="C701" s="6"/>
+      <c r="A701" s="7"/>
+      <c r="B701" s="7"/>
+      <c r="C701" s="7"/>
     </row>
     <row r="702">
-      <c r="A702" s="6"/>
-      <c r="B702" s="6"/>
-      <c r="C702" s="6"/>
+      <c r="A702" s="7"/>
+      <c r="B702" s="7"/>
+      <c r="C702" s="7"/>
     </row>
     <row r="703">
-      <c r="A703" s="6"/>
-      <c r="B703" s="6"/>
-      <c r="C703" s="6"/>
+      <c r="A703" s="7"/>
+      <c r="B703" s="7"/>
+      <c r="C703" s="7"/>
     </row>
     <row r="704">
-      <c r="A704" s="6"/>
-      <c r="B704" s="6"/>
-      <c r="C704" s="6"/>
+      <c r="A704" s="7"/>
+      <c r="B704" s="7"/>
+      <c r="C704" s="7"/>
     </row>
     <row r="705">
-      <c r="A705" s="6"/>
-      <c r="B705" s="6"/>
-      <c r="C705" s="6"/>
+      <c r="A705" s="7"/>
+      <c r="B705" s="7"/>
+      <c r="C705" s="7"/>
     </row>
     <row r="706">
-      <c r="A706" s="6"/>
-      <c r="B706" s="6"/>
-      <c r="C706" s="6"/>
+      <c r="A706" s="7"/>
+      <c r="B706" s="7"/>
+      <c r="C706" s="7"/>
     </row>
     <row r="707">
-      <c r="A707" s="6"/>
-      <c r="B707" s="6"/>
-      <c r="C707" s="6"/>
+      <c r="A707" s="7"/>
+      <c r="B707" s="7"/>
+      <c r="C707" s="7"/>
     </row>
     <row r="708">
-      <c r="A708" s="6"/>
-      <c r="B708" s="6"/>
-      <c r="C708" s="6"/>
+      <c r="A708" s="7"/>
+      <c r="B708" s="7"/>
+      <c r="C708" s="7"/>
     </row>
     <row r="709">
-      <c r="A709" s="6"/>
-      <c r="B709" s="6"/>
-      <c r="C709" s="6"/>
+      <c r="A709" s="7"/>
+      <c r="B709" s="7"/>
+      <c r="C709" s="7"/>
     </row>
     <row r="710">
-      <c r="A710" s="6"/>
-      <c r="B710" s="6"/>
-      <c r="C710" s="6"/>
+      <c r="A710" s="7"/>
+      <c r="B710" s="7"/>
+      <c r="C710" s="7"/>
     </row>
     <row r="711">
-      <c r="A711" s="6"/>
-      <c r="B711" s="6"/>
-      <c r="C711" s="6"/>
+      <c r="A711" s="7"/>
+      <c r="B711" s="7"/>
+      <c r="C711" s="7"/>
     </row>
     <row r="712">
-      <c r="A712" s="6"/>
-      <c r="B712" s="6"/>
-      <c r="C712" s="6"/>
+      <c r="A712" s="7"/>
+      <c r="B712" s="7"/>
+      <c r="C712" s="7"/>
     </row>
     <row r="713">
-      <c r="A713" s="6"/>
-      <c r="B713" s="6"/>
-      <c r="C713" s="6"/>
+      <c r="A713" s="7"/>
+      <c r="B713" s="7"/>
+      <c r="C713" s="7"/>
     </row>
     <row r="714">
-      <c r="A714" s="6"/>
-      <c r="B714" s="6"/>
-      <c r="C714" s="6"/>
+      <c r="A714" s="7"/>
+      <c r="B714" s="7"/>
+      <c r="C714" s="7"/>
     </row>
     <row r="715">
-      <c r="A715" s="6"/>
-      <c r="B715" s="6"/>
-      <c r="C715" s="6"/>
+      <c r="A715" s="7"/>
+      <c r="B715" s="7"/>
+      <c r="C715" s="7"/>
     </row>
     <row r="716">
-      <c r="A716" s="6"/>
-      <c r="B716" s="6"/>
-      <c r="C716" s="6"/>
+      <c r="A716" s="7"/>
+      <c r="B716" s="7"/>
+      <c r="C716" s="7"/>
     </row>
     <row r="717">
-      <c r="A717" s="6"/>
-      <c r="B717" s="6"/>
-      <c r="C717" s="6"/>
+      <c r="A717" s="7"/>
+      <c r="B717" s="7"/>
+      <c r="C717" s="7"/>
     </row>
     <row r="718">
-      <c r="A718" s="6"/>
-      <c r="B718" s="6"/>
-      <c r="C718" s="6"/>
+      <c r="A718" s="7"/>
+      <c r="B718" s="7"/>
+      <c r="C718" s="7"/>
     </row>
     <row r="719">
-      <c r="A719" s="6"/>
-      <c r="B719" s="6"/>
-      <c r="C719" s="6"/>
+      <c r="A719" s="7"/>
+      <c r="B719" s="7"/>
+      <c r="C719" s="7"/>
     </row>
     <row r="720">
-      <c r="A720" s="6"/>
-      <c r="B720" s="6"/>
-      <c r="C720" s="6"/>
+      <c r="A720" s="7"/>
+      <c r="B720" s="7"/>
+      <c r="C720" s="7"/>
     </row>
     <row r="721">
-      <c r="A721" s="6"/>
-      <c r="B721" s="6"/>
-      <c r="C721" s="6"/>
+      <c r="A721" s="7"/>
+      <c r="B721" s="7"/>
+      <c r="C721" s="7"/>
     </row>
     <row r="722">
-      <c r="A722" s="6"/>
-      <c r="B722" s="6"/>
-      <c r="C722" s="6"/>
+      <c r="A722" s="7"/>
+      <c r="B722" s="7"/>
+      <c r="C722" s="7"/>
     </row>
     <row r="723">
-      <c r="A723" s="6"/>
-      <c r="B723" s="6"/>
-      <c r="C723" s="6"/>
+      <c r="A723" s="7"/>
+      <c r="B723" s="7"/>
+      <c r="C723" s="7"/>
     </row>
     <row r="724">
-      <c r="A724" s="6"/>
-      <c r="B724" s="6"/>
-      <c r="C724" s="6"/>
+      <c r="A724" s="7"/>
+      <c r="B724" s="7"/>
+      <c r="C724" s="7"/>
     </row>
     <row r="725">
-      <c r="A725" s="6"/>
-      <c r="B725" s="6"/>
-      <c r="C725" s="6"/>
+      <c r="A725" s="7"/>
+      <c r="B725" s="7"/>
+      <c r="C725" s="7"/>
     </row>
     <row r="726">
-      <c r="A726" s="6"/>
-      <c r="B726" s="6"/>
-      <c r="C726" s="6"/>
+      <c r="A726" s="7"/>
+      <c r="B726" s="7"/>
+      <c r="C726" s="7"/>
     </row>
     <row r="727">
-      <c r="A727" s="6"/>
-      <c r="B727" s="6"/>
-      <c r="C727" s="6"/>
+      <c r="A727" s="7"/>
+      <c r="B727" s="7"/>
+      <c r="C727" s="7"/>
     </row>
     <row r="728">
-      <c r="A728" s="6"/>
-      <c r="B728" s="6"/>
-      <c r="C728" s="6"/>
+      <c r="A728" s="7"/>
+      <c r="B728" s="7"/>
+      <c r="C728" s="7"/>
     </row>
     <row r="729">
-      <c r="A729" s="6"/>
-      <c r="B729" s="6"/>
-      <c r="C729" s="6"/>
+      <c r="A729" s="7"/>
+      <c r="B729" s="7"/>
+      <c r="C729" s="7"/>
     </row>
     <row r="730">
-      <c r="A730" s="6"/>
-      <c r="B730" s="6"/>
-      <c r="C730" s="6"/>
+      <c r="A730" s="7"/>
+      <c r="B730" s="7"/>
+      <c r="C730" s="7"/>
     </row>
     <row r="731">
-      <c r="A731" s="6"/>
-      <c r="B731" s="6"/>
-      <c r="C731" s="6"/>
+      <c r="A731" s="7"/>
+      <c r="B731" s="7"/>
+      <c r="C731" s="7"/>
     </row>
     <row r="732">
-      <c r="A732" s="6"/>
-      <c r="B732" s="6"/>
-      <c r="C732" s="6"/>
+      <c r="A732" s="7"/>
+      <c r="B732" s="7"/>
+      <c r="C732" s="7"/>
     </row>
     <row r="733">
-      <c r="A733" s="6"/>
-      <c r="B733" s="6"/>
-      <c r="C733" s="6"/>
+      <c r="A733" s="7"/>
+      <c r="B733" s="7"/>
+      <c r="C733" s="7"/>
     </row>
     <row r="734">
-      <c r="A734" s="6"/>
-      <c r="B734" s="6"/>
-      <c r="C734" s="6"/>
+      <c r="A734" s="7"/>
+      <c r="B734" s="7"/>
+      <c r="C734" s="7"/>
     </row>
     <row r="735">
-      <c r="A735" s="6"/>
-      <c r="B735" s="6"/>
-      <c r="C735" s="6"/>
+      <c r="A735" s="7"/>
+      <c r="B735" s="7"/>
+      <c r="C735" s="7"/>
     </row>
     <row r="736">
-      <c r="A736" s="6"/>
-      <c r="B736" s="6"/>
-      <c r="C736" s="6"/>
+      <c r="A736" s="7"/>
+      <c r="B736" s="7"/>
+      <c r="C736" s="7"/>
     </row>
     <row r="737">
-      <c r="A737" s="6"/>
-      <c r="B737" s="6"/>
-      <c r="C737" s="6"/>
+      <c r="A737" s="7"/>
+      <c r="B737" s="7"/>
+      <c r="C737" s="7"/>
     </row>
     <row r="738">
-      <c r="A738" s="6"/>
-      <c r="B738" s="6"/>
-      <c r="C738" s="6"/>
+      <c r="A738" s="7"/>
+      <c r="B738" s="7"/>
+      <c r="C738" s="7"/>
     </row>
     <row r="739">
-      <c r="A739" s="6"/>
-      <c r="B739" s="6"/>
-      <c r="C739" s="6"/>
+      <c r="A739" s="7"/>
+      <c r="B739" s="7"/>
+      <c r="C739" s="7"/>
     </row>
     <row r="740">
-      <c r="A740" s="6"/>
-      <c r="B740" s="6"/>
-      <c r="C740" s="6"/>
+      <c r="A740" s="7"/>
+      <c r="B740" s="7"/>
+      <c r="C740" s="7"/>
     </row>
     <row r="741">
-      <c r="A741" s="6"/>
-      <c r="B741" s="6"/>
-      <c r="C741" s="6"/>
+      <c r="A741" s="7"/>
+      <c r="B741" s="7"/>
+      <c r="C741" s="7"/>
     </row>
     <row r="742">
-      <c r="A742" s="6"/>
-      <c r="B742" s="6"/>
-      <c r="C742" s="6"/>
+      <c r="A742" s="7"/>
+      <c r="B742" s="7"/>
+      <c r="C742" s="7"/>
     </row>
     <row r="743">
-      <c r="A743" s="6"/>
-      <c r="B743" s="6"/>
-      <c r="C743" s="6"/>
+      <c r="A743" s="7"/>
+      <c r="B743" s="7"/>
+      <c r="C743" s="7"/>
     </row>
     <row r="744">
-      <c r="A744" s="6"/>
-      <c r="B744" s="6"/>
-      <c r="C744" s="6"/>
+      <c r="A744" s="7"/>
+      <c r="B744" s="7"/>
+      <c r="C744" s="7"/>
     </row>
     <row r="745">
-      <c r="A745" s="6"/>
-      <c r="B745" s="6"/>
-      <c r="C745" s="6"/>
+      <c r="A745" s="7"/>
+      <c r="B745" s="7"/>
+      <c r="C745" s="7"/>
     </row>
     <row r="746">
-      <c r="A746" s="6"/>
-      <c r="B746" s="6"/>
-      <c r="C746" s="6"/>
+      <c r="A746" s="7"/>
+      <c r="B746" s="7"/>
+      <c r="C746" s="7"/>
     </row>
     <row r="747">
-      <c r="A747" s="6"/>
-      <c r="B747" s="6"/>
-      <c r="C747" s="6"/>
+      <c r="A747" s="7"/>
+      <c r="B747" s="7"/>
+      <c r="C747" s="7"/>
     </row>
     <row r="748">
-      <c r="A748" s="6"/>
-      <c r="B748" s="6"/>
-      <c r="C748" s="6"/>
+      <c r="A748" s="7"/>
+      <c r="B748" s="7"/>
+      <c r="C748" s="7"/>
     </row>
     <row r="749">
-      <c r="A749" s="6"/>
-      <c r="B749" s="6"/>
-      <c r="C749" s="6"/>
+      <c r="A749" s="7"/>
+      <c r="B749" s="7"/>
+      <c r="C749" s="7"/>
     </row>
     <row r="750">
-      <c r="A750" s="6"/>
-      <c r="B750" s="6"/>
-      <c r="C750" s="6"/>
+      <c r="A750" s="7"/>
+      <c r="B750" s="7"/>
+      <c r="C750" s="7"/>
     </row>
     <row r="751">
-      <c r="A751" s="6"/>
-      <c r="B751" s="6"/>
-      <c r="C751" s="6"/>
+      <c r="A751" s="7"/>
+      <c r="B751" s="7"/>
+      <c r="C751" s="7"/>
     </row>
     <row r="752">
-      <c r="A752" s="6"/>
-      <c r="B752" s="6"/>
-      <c r="C752" s="6"/>
+      <c r="A752" s="7"/>
+      <c r="B752" s="7"/>
+      <c r="C752" s="7"/>
     </row>
     <row r="753">
-      <c r="A753" s="6"/>
-      <c r="B753" s="6"/>
-      <c r="C753" s="6"/>
+      <c r="A753" s="7"/>
+      <c r="B753" s="7"/>
+      <c r="C753" s="7"/>
     </row>
     <row r="754">
-      <c r="A754" s="6"/>
-      <c r="B754" s="6"/>
-      <c r="C754" s="6"/>
+      <c r="A754" s="7"/>
+      <c r="B754" s="7"/>
+      <c r="C754" s="7"/>
     </row>
     <row r="755">
-      <c r="A755" s="6"/>
-      <c r="B755" s="6"/>
-      <c r="C755" s="6"/>
+      <c r="A755" s="7"/>
+      <c r="B755" s="7"/>
+      <c r="C755" s="7"/>
     </row>
     <row r="756">
-      <c r="A756" s="6"/>
-      <c r="B756" s="6"/>
-      <c r="C756" s="6"/>
+      <c r="A756" s="7"/>
+      <c r="B756" s="7"/>
+      <c r="C756" s="7"/>
     </row>
     <row r="757">
-      <c r="A757" s="6"/>
-      <c r="B757" s="6"/>
-      <c r="C757" s="6"/>
+      <c r="A757" s="7"/>
+      <c r="B757" s="7"/>
+      <c r="C757" s="7"/>
     </row>
     <row r="758">
-      <c r="A758" s="6"/>
-      <c r="B758" s="6"/>
-      <c r="C758" s="6"/>
+      <c r="A758" s="7"/>
+      <c r="B758" s="7"/>
+      <c r="C758" s="7"/>
     </row>
     <row r="759">
-      <c r="A759" s="6"/>
-      <c r="B759" s="6"/>
-      <c r="C759" s="6"/>
+      <c r="A759" s="7"/>
+      <c r="B759" s="7"/>
+      <c r="C759" s="7"/>
     </row>
     <row r="760">
-      <c r="A760" s="6"/>
-      <c r="B760" s="6"/>
-      <c r="C760" s="6"/>
+      <c r="A760" s="7"/>
+      <c r="B760" s="7"/>
+      <c r="C760" s="7"/>
     </row>
     <row r="761">
-      <c r="A761" s="6"/>
-      <c r="B761" s="6"/>
-      <c r="C761" s="6"/>
+      <c r="A761" s="7"/>
+      <c r="B761" s="7"/>
+      <c r="C761" s="7"/>
     </row>
     <row r="762">
-      <c r="A762" s="6"/>
-      <c r="B762" s="6"/>
-      <c r="C762" s="6"/>
+      <c r="A762" s="7"/>
+      <c r="B762" s="7"/>
+      <c r="C762" s="7"/>
     </row>
     <row r="763">
-      <c r="A763" s="6"/>
-      <c r="B763" s="6"/>
-      <c r="C763" s="6"/>
+      <c r="A763" s="7"/>
+      <c r="B763" s="7"/>
+      <c r="C763" s="7"/>
     </row>
     <row r="764">
-      <c r="A764" s="6"/>
-      <c r="B764" s="6"/>
-      <c r="C764" s="6"/>
+      <c r="A764" s="7"/>
+      <c r="B764" s="7"/>
+      <c r="C764" s="7"/>
     </row>
     <row r="765">
-      <c r="A765" s="6"/>
-      <c r="B765" s="6"/>
-      <c r="C765" s="6"/>
+      <c r="A765" s="7"/>
+      <c r="B765" s="7"/>
+      <c r="C765" s="7"/>
     </row>
     <row r="766">
-      <c r="A766" s="6"/>
-      <c r="B766" s="6"/>
-      <c r="C766" s="6"/>
+      <c r="A766" s="7"/>
+      <c r="B766" s="7"/>
+      <c r="C766" s="7"/>
     </row>
     <row r="767">
-      <c r="A767" s="6"/>
-      <c r="B767" s="6"/>
-      <c r="C767" s="6"/>
+      <c r="A767" s="7"/>
+      <c r="B767" s="7"/>
+      <c r="C767" s="7"/>
     </row>
     <row r="768">
-      <c r="A768" s="6"/>
-      <c r="B768" s="6"/>
-      <c r="C768" s="6"/>
+      <c r="A768" s="7"/>
+      <c r="B768" s="7"/>
+      <c r="C768" s="7"/>
     </row>
     <row r="769">
-      <c r="A769" s="6"/>
-      <c r="B769" s="6"/>
-      <c r="C769" s="6"/>
+      <c r="A769" s="7"/>
+      <c r="B769" s="7"/>
+      <c r="C769" s="7"/>
     </row>
     <row r="770">
-      <c r="A770" s="6"/>
-      <c r="B770" s="6"/>
-      <c r="C770" s="6"/>
+      <c r="A770" s="7"/>
+      <c r="B770" s="7"/>
+      <c r="C770" s="7"/>
     </row>
     <row r="771">
-      <c r="A771" s="6"/>
-      <c r="B771" s="6"/>
-      <c r="C771" s="6"/>
+      <c r="A771" s="7"/>
+      <c r="B771" s="7"/>
+      <c r="C771" s="7"/>
     </row>
     <row r="772">
-      <c r="A772" s="6"/>
-      <c r="B772" s="6"/>
-      <c r="C772" s="6"/>
+      <c r="A772" s="7"/>
+      <c r="B772" s="7"/>
+      <c r="C772" s="7"/>
     </row>
     <row r="773">
-      <c r="A773" s="6"/>
-      <c r="B773" s="6"/>
-      <c r="C773" s="6"/>
+      <c r="A773" s="7"/>
+      <c r="B773" s="7"/>
+      <c r="C773" s="7"/>
     </row>
     <row r="774">
-      <c r="A774" s="6"/>
-      <c r="B774" s="6"/>
-      <c r="C774" s="6"/>
+      <c r="A774" s="7"/>
+      <c r="B774" s="7"/>
+      <c r="C774" s="7"/>
     </row>
     <row r="775">
-      <c r="A775" s="6"/>
-      <c r="B775" s="6"/>
-      <c r="C775" s="6"/>
+      <c r="A775" s="7"/>
+      <c r="B775" s="7"/>
+      <c r="C775" s="7"/>
     </row>
     <row r="776">
-      <c r="A776" s="6"/>
-      <c r="B776" s="6"/>
-      <c r="C776" s="6"/>
+      <c r="A776" s="7"/>
+      <c r="B776" s="7"/>
+      <c r="C776" s="7"/>
     </row>
     <row r="777">
-      <c r="A777" s="6"/>
-      <c r="B777" s="6"/>
-      <c r="C777" s="6"/>
+      <c r="A777" s="7"/>
+      <c r="B777" s="7"/>
+      <c r="C777" s="7"/>
     </row>
     <row r="778">
-      <c r="A778" s="6"/>
-      <c r="B778" s="6"/>
-      <c r="C778" s="6"/>
+      <c r="A778" s="7"/>
+      <c r="B778" s="7"/>
+      <c r="C778" s="7"/>
     </row>
     <row r="779">
-      <c r="A779" s="6"/>
-      <c r="B779" s="6"/>
-      <c r="C779" s="6"/>
+      <c r="A779" s="7"/>
+      <c r="B779" s="7"/>
+      <c r="C779" s="7"/>
     </row>
     <row r="780">
-      <c r="A780" s="6"/>
-      <c r="B780" s="6"/>
-      <c r="C780" s="6"/>
+      <c r="A780" s="7"/>
+      <c r="B780" s="7"/>
+      <c r="C780" s="7"/>
     </row>
     <row r="781">
-      <c r="A781" s="6"/>
-      <c r="B781" s="6"/>
-      <c r="C781" s="6"/>
+      <c r="A781" s="7"/>
+      <c r="B781" s="7"/>
+      <c r="C781" s="7"/>
     </row>
     <row r="782">
-      <c r="A782" s="6"/>
-      <c r="B782" s="6"/>
-      <c r="C782" s="6"/>
+      <c r="A782" s="7"/>
+      <c r="B782" s="7"/>
+      <c r="C782" s="7"/>
     </row>
     <row r="783">
-      <c r="A783" s="6"/>
-      <c r="B783" s="6"/>
-      <c r="C783" s="6"/>
+      <c r="A783" s="7"/>
+      <c r="B783" s="7"/>
+      <c r="C783" s="7"/>
     </row>
     <row r="784">
-      <c r="A784" s="6"/>
-      <c r="B784" s="6"/>
-      <c r="C784" s="6"/>
+      <c r="A784" s="7"/>
+      <c r="B784" s="7"/>
+      <c r="C784" s="7"/>
     </row>
     <row r="785">
-      <c r="A785" s="6"/>
-      <c r="B785" s="6"/>
-      <c r="C785" s="6"/>
+      <c r="A785" s="7"/>
+      <c r="B785" s="7"/>
+      <c r="C785" s="7"/>
     </row>
     <row r="786">
-      <c r="A786" s="6"/>
-      <c r="B786" s="6"/>
-      <c r="C786" s="6"/>
+      <c r="A786" s="7"/>
+      <c r="B786" s="7"/>
+      <c r="C786" s="7"/>
     </row>
     <row r="787">
-      <c r="A787" s="6"/>
-      <c r="B787" s="6"/>
-      <c r="C787" s="6"/>
+      <c r="A787" s="7"/>
+      <c r="B787" s="7"/>
+      <c r="C787" s="7"/>
     </row>
     <row r="788">
-      <c r="A788" s="6"/>
-      <c r="B788" s="6"/>
-      <c r="C788" s="6"/>
+      <c r="A788" s="7"/>
+      <c r="B788" s="7"/>
+      <c r="C788" s="7"/>
     </row>
     <row r="789">
-      <c r="A789" s="6"/>
-      <c r="B789" s="6"/>
-      <c r="C789" s="6"/>
+      <c r="A789" s="7"/>
+      <c r="B789" s="7"/>
+      <c r="C789" s="7"/>
     </row>
     <row r="790">
-      <c r="A790" s="6"/>
-      <c r="B790" s="6"/>
-      <c r="C790" s="6"/>
+      <c r="A790" s="7"/>
+      <c r="B790" s="7"/>
+      <c r="C790" s="7"/>
     </row>
     <row r="791">
-      <c r="A791" s="6"/>
-      <c r="B791" s="6"/>
-      <c r="C791" s="6"/>
+      <c r="A791" s="7"/>
+      <c r="B791" s="7"/>
+      <c r="C791" s="7"/>
     </row>
     <row r="792">
-      <c r="A792" s="6"/>
-      <c r="B792" s="6"/>
-      <c r="C792" s="6"/>
+      <c r="A792" s="7"/>
+      <c r="B792" s="7"/>
+      <c r="C792" s="7"/>
     </row>
     <row r="793">
-      <c r="A793" s="6"/>
-      <c r="B793" s="6"/>
-      <c r="C793" s="6"/>
+      <c r="A793" s="7"/>
+      <c r="B793" s="7"/>
+      <c r="C793" s="7"/>
     </row>
     <row r="794">
-      <c r="A794" s="6"/>
-      <c r="B794" s="6"/>
-      <c r="C794" s="6"/>
+      <c r="A794" s="7"/>
+      <c r="B794" s="7"/>
+      <c r="C794" s="7"/>
     </row>
     <row r="795">
-      <c r="A795" s="6"/>
-      <c r="B795" s="6"/>
-      <c r="C795" s="6"/>
+      <c r="A795" s="7"/>
+      <c r="B795" s="7"/>
+      <c r="C795" s="7"/>
     </row>
     <row r="796">
-      <c r="A796" s="6"/>
-      <c r="B796" s="6"/>
-      <c r="C796" s="6"/>
+      <c r="A796" s="7"/>
+      <c r="B796" s="7"/>
+      <c r="C796" s="7"/>
     </row>
     <row r="797">
-      <c r="A797" s="6"/>
-      <c r="B797" s="6"/>
-      <c r="C797" s="6"/>
+      <c r="A797" s="7"/>
+      <c r="B797" s="7"/>
+      <c r="C797" s="7"/>
     </row>
     <row r="798">
-      <c r="A798" s="6"/>
-      <c r="B798" s="6"/>
-      <c r="C798" s="6"/>
+      <c r="A798" s="7"/>
+      <c r="B798" s="7"/>
+      <c r="C798" s="7"/>
     </row>
     <row r="799">
-      <c r="A799" s="6"/>
-      <c r="B799" s="6"/>
-      <c r="C799" s="6"/>
+      <c r="A799" s="7"/>
+      <c r="B799" s="7"/>
+      <c r="C799" s="7"/>
     </row>
     <row r="800">
-      <c r="A800" s="6"/>
-      <c r="B800" s="6"/>
-      <c r="C800" s="6"/>
+      <c r="A800" s="7"/>
+      <c r="B800" s="7"/>
+      <c r="C800" s="7"/>
     </row>
     <row r="801">
-      <c r="A801" s="6"/>
-      <c r="B801" s="6"/>
-      <c r="C801" s="6"/>
+      <c r="A801" s="7"/>
+      <c r="B801" s="7"/>
+      <c r="C801" s="7"/>
     </row>
     <row r="802">
-      <c r="A802" s="6"/>
-      <c r="B802" s="6"/>
-      <c r="C802" s="6"/>
+      <c r="A802" s="7"/>
+      <c r="B802" s="7"/>
+      <c r="C802" s="7"/>
     </row>
     <row r="803">
-      <c r="A803" s="6"/>
-      <c r="B803" s="6"/>
-      <c r="C803" s="6"/>
+      <c r="A803" s="7"/>
+      <c r="B803" s="7"/>
+      <c r="C803" s="7"/>
     </row>
     <row r="804">
-      <c r="A804" s="6"/>
-      <c r="B804" s="6"/>
-      <c r="C804" s="6"/>
+      <c r="A804" s="7"/>
+      <c r="B804" s="7"/>
+      <c r="C804" s="7"/>
     </row>
     <row r="805">
-      <c r="A805" s="6"/>
-      <c r="B805" s="6"/>
-      <c r="C805" s="6"/>
+      <c r="A805" s="7"/>
+      <c r="B805" s="7"/>
+      <c r="C805" s="7"/>
     </row>
     <row r="806">
-      <c r="A806" s="6"/>
-      <c r="B806" s="6"/>
-      <c r="C806" s="6"/>
+      <c r="A806" s="7"/>
+      <c r="B806" s="7"/>
+      <c r="C806" s="7"/>
     </row>
     <row r="807">
-      <c r="A807" s="6"/>
-      <c r="B807" s="6"/>
-      <c r="C807" s="6"/>
+      <c r="A807" s="7"/>
+      <c r="B807" s="7"/>
+      <c r="C807" s="7"/>
     </row>
     <row r="808">
-      <c r="A808" s="6"/>
-      <c r="B808" s="6"/>
-      <c r="C808" s="6"/>
+      <c r="A808" s="7"/>
+      <c r="B808" s="7"/>
+      <c r="C808" s="7"/>
     </row>
     <row r="809">
-      <c r="A809" s="6"/>
-      <c r="B809" s="6"/>
-      <c r="C809" s="6"/>
+      <c r="A809" s="7"/>
+      <c r="B809" s="7"/>
+      <c r="C809" s="7"/>
     </row>
     <row r="810">
-      <c r="A810" s="6"/>
-      <c r="B810" s="6"/>
-      <c r="C810" s="6"/>
+      <c r="A810" s="7"/>
+      <c r="B810" s="7"/>
+      <c r="C810" s="7"/>
     </row>
     <row r="811">
-      <c r="A811" s="6"/>
-      <c r="B811" s="6"/>
-      <c r="C811" s="6"/>
+      <c r="A811" s="7"/>
+      <c r="B811" s="7"/>
+      <c r="C811" s="7"/>
     </row>
     <row r="812">
-      <c r="A812" s="6"/>
-      <c r="B812" s="6"/>
-      <c r="C812" s="6"/>
+      <c r="A812" s="7"/>
+      <c r="B812" s="7"/>
+      <c r="C812" s="7"/>
     </row>
     <row r="813">
-      <c r="A813" s="6"/>
-      <c r="B813" s="6"/>
-      <c r="C813" s="6"/>
+      <c r="A813" s="7"/>
+      <c r="B813" s="7"/>
+      <c r="C813" s="7"/>
     </row>
     <row r="814">
-      <c r="A814" s="6"/>
-      <c r="B814" s="6"/>
-      <c r="C814" s="6"/>
+      <c r="A814" s="7"/>
+      <c r="B814" s="7"/>
+      <c r="C814" s="7"/>
     </row>
     <row r="815">
-      <c r="A815" s="6"/>
-      <c r="B815" s="6"/>
-      <c r="C815" s="6"/>
+      <c r="A815" s="7"/>
+      <c r="B815" s="7"/>
+      <c r="C815" s="7"/>
     </row>
     <row r="816">
-      <c r="A816" s="6"/>
-      <c r="B816" s="6"/>
-      <c r="C816" s="6"/>
+      <c r="A816" s="7"/>
+      <c r="B816" s="7"/>
+      <c r="C816" s="7"/>
     </row>
     <row r="817">
-      <c r="A817" s="6"/>
-      <c r="B817" s="6"/>
-      <c r="C817" s="6"/>
+      <c r="A817" s="7"/>
+      <c r="B817" s="7"/>
+      <c r="C817" s="7"/>
     </row>
     <row r="818">
-      <c r="A818" s="6"/>
-      <c r="B818" s="6"/>
-      <c r="C818" s="6"/>
+      <c r="A818" s="7"/>
+      <c r="B818" s="7"/>
+      <c r="C818" s="7"/>
     </row>
     <row r="819">
-      <c r="A819" s="6"/>
-      <c r="B819" s="6"/>
-      <c r="C819" s="6"/>
+      <c r="A819" s="7"/>
+      <c r="B819" s="7"/>
+      <c r="C819" s="7"/>
     </row>
     <row r="820">
-      <c r="A820" s="6"/>
-      <c r="B820" s="6"/>
-      <c r="C820" s="6"/>
+      <c r="A820" s="7"/>
+      <c r="B820" s="7"/>
+      <c r="C820" s="7"/>
     </row>
     <row r="821">
-      <c r="A821" s="6"/>
-      <c r="B821" s="6"/>
-      <c r="C821" s="6"/>
+      <c r="A821" s="7"/>
+      <c r="B821" s="7"/>
+      <c r="C821" s="7"/>
     </row>
     <row r="822">
-      <c r="A822" s="6"/>
-      <c r="B822" s="6"/>
-      <c r="C822" s="6"/>
+      <c r="A822" s="7"/>
+      <c r="B822" s="7"/>
+      <c r="C822" s="7"/>
     </row>
     <row r="823">
-      <c r="A823" s="6"/>
-      <c r="B823" s="6"/>
-      <c r="C823" s="6"/>
+      <c r="A823" s="7"/>
+      <c r="B823" s="7"/>
+      <c r="C823" s="7"/>
     </row>
     <row r="824">
-      <c r="A824" s="6"/>
-      <c r="B824" s="6"/>
-      <c r="C824" s="6"/>
+      <c r="A824" s="7"/>
+      <c r="B824" s="7"/>
+      <c r="C824" s="7"/>
     </row>
     <row r="825">
-      <c r="A825" s="6"/>
-      <c r="B825" s="6"/>
-      <c r="C825" s="6"/>
+      <c r="A825" s="7"/>
+      <c r="B825" s="7"/>
+      <c r="C825" s="7"/>
     </row>
     <row r="826">
-      <c r="A826" s="6"/>
-      <c r="B826" s="6"/>
-      <c r="C826" s="6"/>
+      <c r="A826" s="7"/>
+      <c r="B826" s="7"/>
+      <c r="C826" s="7"/>
     </row>
     <row r="827">
-      <c r="A827" s="6"/>
-      <c r="B827" s="6"/>
-      <c r="C827" s="6"/>
+      <c r="A827" s="7"/>
+      <c r="B827" s="7"/>
+      <c r="C827" s="7"/>
     </row>
     <row r="828">
-      <c r="A828" s="6"/>
-      <c r="B828" s="6"/>
-      <c r="C828" s="6"/>
+      <c r="A828" s="7"/>
+      <c r="B828" s="7"/>
+      <c r="C828" s="7"/>
     </row>
     <row r="829">
-      <c r="A829" s="6"/>
-      <c r="B829" s="6"/>
-      <c r="C829" s="6"/>
+      <c r="A829" s="7"/>
+      <c r="B829" s="7"/>
+      <c r="C829" s="7"/>
     </row>
     <row r="830">
-      <c r="A830" s="6"/>
-      <c r="B830" s="6"/>
-      <c r="C830" s="6"/>
+      <c r="A830" s="7"/>
+      <c r="B830" s="7"/>
+      <c r="C830" s="7"/>
     </row>
     <row r="831">
-      <c r="A831" s="6"/>
-      <c r="B831" s="6"/>
-      <c r="C831" s="6"/>
+      <c r="A831" s="7"/>
+      <c r="B831" s="7"/>
+      <c r="C831" s="7"/>
     </row>
     <row r="832">
-      <c r="A832" s="6"/>
-      <c r="B832" s="6"/>
-      <c r="C832" s="6"/>
+      <c r="A832" s="7"/>
+      <c r="B832" s="7"/>
+      <c r="C832" s="7"/>
     </row>
     <row r="833">
-      <c r="A833" s="6"/>
-      <c r="B833" s="6"/>
-      <c r="C833" s="6"/>
+      <c r="A833" s="7"/>
+      <c r="B833" s="7"/>
+      <c r="C833" s="7"/>
     </row>
     <row r="834">
-      <c r="A834" s="6"/>
-      <c r="B834" s="6"/>
-      <c r="C834" s="6"/>
+      <c r="A834" s="7"/>
+      <c r="B834" s="7"/>
+      <c r="C834" s="7"/>
     </row>
     <row r="835">
-      <c r="A835" s="6"/>
-      <c r="B835" s="6"/>
-      <c r="C835" s="6"/>
+      <c r="A835" s="7"/>
+      <c r="B835" s="7"/>
+      <c r="C835" s="7"/>
     </row>
     <row r="836">
-      <c r="A836" s="6"/>
-      <c r="B836" s="6"/>
-      <c r="C836" s="6"/>
+      <c r="A836" s="7"/>
+      <c r="B836" s="7"/>
+      <c r="C836" s="7"/>
     </row>
     <row r="837">
-      <c r="A837" s="6"/>
-      <c r="B837" s="6"/>
-      <c r="C837" s="6"/>
+      <c r="A837" s="7"/>
+      <c r="B837" s="7"/>
+      <c r="C837" s="7"/>
     </row>
     <row r="838">
-      <c r="A838" s="6"/>
-      <c r="B838" s="6"/>
-      <c r="C838" s="6"/>
+      <c r="A838" s="7"/>
+      <c r="B838" s="7"/>
+      <c r="C838" s="7"/>
     </row>
     <row r="839">
-      <c r="A839" s="6"/>
-      <c r="B839" s="6"/>
-      <c r="C839" s="6"/>
+      <c r="A839" s="7"/>
+      <c r="B839" s="7"/>
+      <c r="C839" s="7"/>
     </row>
     <row r="840">
-      <c r="A840" s="6"/>
-      <c r="B840" s="6"/>
-      <c r="C840" s="6"/>
+      <c r="A840" s="7"/>
+      <c r="B840" s="7"/>
+      <c r="C840" s="7"/>
     </row>
     <row r="841">
-      <c r="A841" s="6"/>
-      <c r="B841" s="6"/>
-      <c r="C841" s="6"/>
+      <c r="A841" s="7"/>
+      <c r="B841" s="7"/>
+      <c r="C841" s="7"/>
     </row>
     <row r="842">
-      <c r="A842" s="6"/>
-      <c r="B842" s="6"/>
-      <c r="C842" s="6"/>
+      <c r="A842" s="7"/>
+      <c r="B842" s="7"/>
+      <c r="C842" s="7"/>
     </row>
     <row r="843">
-      <c r="A843" s="6"/>
-      <c r="B843" s="6"/>
-      <c r="C843" s="6"/>
+      <c r="A843" s="7"/>
+      <c r="B843" s="7"/>
+      <c r="C843" s="7"/>
     </row>
     <row r="844">
-      <c r="A844" s="6"/>
-      <c r="B844" s="6"/>
-      <c r="C844" s="6"/>
+      <c r="A844" s="7"/>
+      <c r="B844" s="7"/>
+      <c r="C844" s="7"/>
     </row>
     <row r="845">
-      <c r="A845" s="6"/>
-      <c r="B845" s="6"/>
-      <c r="C845" s="6"/>
+      <c r="A845" s="7"/>
+      <c r="B845" s="7"/>
+      <c r="C845" s="7"/>
     </row>
     <row r="846">
-      <c r="A846" s="6"/>
-      <c r="B846" s="6"/>
-      <c r="C846" s="6"/>
+      <c r="A846" s="7"/>
+      <c r="B846" s="7"/>
+      <c r="C846" s="7"/>
     </row>
     <row r="847">
-      <c r="A847" s="6"/>
-      <c r="B847" s="6"/>
-      <c r="C847" s="6"/>
+      <c r="A847" s="7"/>
+      <c r="B847" s="7"/>
+      <c r="C847" s="7"/>
     </row>
     <row r="848">
-      <c r="A848" s="6"/>
-      <c r="B848" s="6"/>
-      <c r="C848" s="6"/>
+      <c r="A848" s="7"/>
+      <c r="B848" s="7"/>
+      <c r="C848" s="7"/>
     </row>
     <row r="849">
-      <c r="A849" s="6"/>
-      <c r="B849" s="6"/>
-      <c r="C849" s="6"/>
+      <c r="A849" s="7"/>
+      <c r="B849" s="7"/>
+      <c r="C849" s="7"/>
     </row>
     <row r="850">
-      <c r="A850" s="6"/>
-      <c r="B850" s="6"/>
-      <c r="C850" s="6"/>
+      <c r="A850" s="7"/>
+      <c r="B850" s="7"/>
+      <c r="C850" s="7"/>
     </row>
     <row r="851">
-      <c r="A851" s="6"/>
-      <c r="B851" s="6"/>
-      <c r="C851" s="6"/>
+      <c r="A851" s="7"/>
+      <c r="B851" s="7"/>
+      <c r="C851" s="7"/>
     </row>
     <row r="852">
-      <c r="A852" s="6"/>
-      <c r="B852" s="6"/>
-      <c r="C852" s="6"/>
+      <c r="A852" s="7"/>
+      <c r="B852" s="7"/>
+      <c r="C852" s="7"/>
     </row>
     <row r="853">
-      <c r="A853" s="6"/>
-      <c r="B853" s="6"/>
-      <c r="C853" s="6"/>
+      <c r="A853" s="7"/>
+      <c r="B853" s="7"/>
+      <c r="C853" s="7"/>
     </row>
     <row r="854">
-      <c r="A854" s="6"/>
-      <c r="B854" s="6"/>
-      <c r="C854" s="6"/>
+      <c r="A854" s="7"/>
+      <c r="B854" s="7"/>
+      <c r="C854" s="7"/>
     </row>
     <row r="855">
-      <c r="A855" s="6"/>
-      <c r="B855" s="6"/>
-      <c r="C855" s="6"/>
+      <c r="A855" s="7"/>
+      <c r="B855" s="7"/>
+      <c r="C855" s="7"/>
     </row>
     <row r="856">
-      <c r="A856" s="6"/>
-      <c r="B856" s="6"/>
-      <c r="C856" s="6"/>
+      <c r="A856" s="7"/>
+      <c r="B856" s="7"/>
+      <c r="C856" s="7"/>
     </row>
     <row r="857">
-      <c r="A857" s="6"/>
-      <c r="B857" s="6"/>
-      <c r="C857" s="6"/>
+      <c r="A857" s="7"/>
+      <c r="B857" s="7"/>
+      <c r="C857" s="7"/>
     </row>
     <row r="858">
-      <c r="A858" s="6"/>
-      <c r="B858" s="6"/>
-      <c r="C858" s="6"/>
+      <c r="A858" s="7"/>
+      <c r="B858" s="7"/>
+      <c r="C858" s="7"/>
     </row>
     <row r="859">
-      <c r="A859" s="6"/>
-      <c r="B859" s="6"/>
-      <c r="C859" s="6"/>
+      <c r="A859" s="7"/>
+      <c r="B859" s="7"/>
+      <c r="C859" s="7"/>
     </row>
     <row r="860">
-      <c r="A860" s="6"/>
-      <c r="B860" s="6"/>
-      <c r="C860" s="6"/>
+      <c r="A860" s="7"/>
+      <c r="B860" s="7"/>
+      <c r="C860" s="7"/>
     </row>
     <row r="861">
-      <c r="A861" s="6"/>
-      <c r="B861" s="6"/>
-      <c r="C861" s="6"/>
+      <c r="A861" s="7"/>
+      <c r="B861" s="7"/>
+      <c r="C861" s="7"/>
     </row>
     <row r="862">
-      <c r="A862" s="6"/>
-      <c r="B862" s="6"/>
-      <c r="C862" s="6"/>
+      <c r="A862" s="7"/>
+      <c r="B862" s="7"/>
+      <c r="C862" s="7"/>
     </row>
     <row r="863">
-      <c r="A863" s="6"/>
-      <c r="B863" s="6"/>
-      <c r="C863" s="6"/>
+      <c r="A863" s="7"/>
+      <c r="B863" s="7"/>
+      <c r="C863" s="7"/>
     </row>
     <row r="864">
-      <c r="A864" s="6"/>
-      <c r="B864" s="6"/>
-      <c r="C864" s="6"/>
+      <c r="A864" s="7"/>
+      <c r="B864" s="7"/>
+      <c r="C864" s="7"/>
     </row>
     <row r="865">
-      <c r="A865" s="6"/>
-      <c r="B865" s="6"/>
-      <c r="C865" s="6"/>
+      <c r="A865" s="7"/>
+      <c r="B865" s="7"/>
+      <c r="C865" s="7"/>
     </row>
     <row r="866">
-      <c r="A866" s="6"/>
-      <c r="B866" s="6"/>
-      <c r="C866" s="6"/>
+      <c r="A866" s="7"/>
+      <c r="B866" s="7"/>
+      <c r="C866" s="7"/>
     </row>
     <row r="867">
-      <c r="A867" s="6"/>
-      <c r="B867" s="6"/>
-      <c r="C867" s="6"/>
+      <c r="A867" s="7"/>
+      <c r="B867" s="7"/>
+      <c r="C867" s="7"/>
     </row>
     <row r="868">
-      <c r="A868" s="6"/>
-      <c r="B868" s="6"/>
-      <c r="C868" s="6"/>
+      <c r="A868" s="7"/>
+      <c r="B868" s="7"/>
+      <c r="C868" s="7"/>
     </row>
     <row r="869">
-      <c r="A869" s="6"/>
-      <c r="B869" s="6"/>
-      <c r="C869" s="6"/>
+      <c r="A869" s="7"/>
+      <c r="B869" s="7"/>
+      <c r="C869" s="7"/>
     </row>
     <row r="870">
-      <c r="A870" s="6"/>
-      <c r="B870" s="6"/>
-      <c r="C870" s="6"/>
+      <c r="A870" s="7"/>
+      <c r="B870" s="7"/>
+      <c r="C870" s="7"/>
     </row>
     <row r="871">
-      <c r="A871" s="6"/>
-      <c r="B871" s="6"/>
-      <c r="C871" s="6"/>
+      <c r="A871" s="7"/>
+      <c r="B871" s="7"/>
+      <c r="C871" s="7"/>
     </row>
     <row r="872">
-      <c r="A872" s="6"/>
-      <c r="B872" s="6"/>
-      <c r="C872" s="6"/>
+      <c r="A872" s="7"/>
+      <c r="B872" s="7"/>
+      <c r="C872" s="7"/>
     </row>
     <row r="873">
-      <c r="A873" s="6"/>
-      <c r="B873" s="6"/>
-      <c r="C873" s="6"/>
+      <c r="A873" s="7"/>
+      <c r="B873" s="7"/>
+      <c r="C873" s="7"/>
     </row>
     <row r="874">
-      <c r="A874" s="6"/>
-      <c r="B874" s="6"/>
-      <c r="C874" s="6"/>
+      <c r="A874" s="7"/>
+      <c r="B874" s="7"/>
+      <c r="C874" s="7"/>
     </row>
     <row r="875">
-      <c r="A875" s="6"/>
-      <c r="B875" s="6"/>
-      <c r="C875" s="6"/>
+      <c r="A875" s="7"/>
+      <c r="B875" s="7"/>
+      <c r="C875" s="7"/>
     </row>
     <row r="876">
-      <c r="A876" s="6"/>
-      <c r="B876" s="6"/>
-      <c r="C876" s="6"/>
+      <c r="A876" s="7"/>
+      <c r="B876" s="7"/>
+      <c r="C876" s="7"/>
     </row>
     <row r="877">
-      <c r="A877" s="6"/>
-      <c r="B877" s="6"/>
-      <c r="C877" s="6"/>
+      <c r="A877" s="7"/>
+      <c r="B877" s="7"/>
+      <c r="C877" s="7"/>
     </row>
     <row r="878">
-      <c r="A878" s="6"/>
-      <c r="B878" s="6"/>
-      <c r="C878" s="6"/>
+      <c r="A878" s="7"/>
+      <c r="B878" s="7"/>
+      <c r="C878" s="7"/>
     </row>
     <row r="879">
-      <c r="A879" s="6"/>
-      <c r="B879" s="6"/>
-      <c r="C879" s="6"/>
+      <c r="A879" s="7"/>
+      <c r="B879" s="7"/>
+      <c r="C879" s="7"/>
     </row>
     <row r="880">
-      <c r="A880" s="6"/>
-      <c r="B880" s="6"/>
-      <c r="C880" s="6"/>
+      <c r="A880" s="7"/>
+      <c r="B880" s="7"/>
+      <c r="C880" s="7"/>
     </row>
     <row r="881">
-      <c r="A881" s="6"/>
-      <c r="B881" s="6"/>
-      <c r="C881" s="6"/>
+      <c r="A881" s="7"/>
+      <c r="B881" s="7"/>
+      <c r="C881" s="7"/>
     </row>
     <row r="882">
-      <c r="A882" s="6"/>
-      <c r="B882" s="6"/>
-      <c r="C882" s="6"/>
+      <c r="A882" s="7"/>
+      <c r="B882" s="7"/>
+      <c r="C882" s="7"/>
     </row>
     <row r="883">
-      <c r="A883" s="6"/>
-      <c r="B883" s="6"/>
-      <c r="C883" s="6"/>
+      <c r="A883" s="7"/>
+      <c r="B883" s="7"/>
+      <c r="C883" s="7"/>
     </row>
     <row r="884">
-      <c r="A884" s="6"/>
-      <c r="B884" s="6"/>
-      <c r="C884" s="6"/>
+      <c r="A884" s="7"/>
+      <c r="B884" s="7"/>
+      <c r="C884" s="7"/>
     </row>
     <row r="885">
-      <c r="A885" s="6"/>
-      <c r="B885" s="6"/>
-      <c r="C885" s="6"/>
+      <c r="A885" s="7"/>
+      <c r="B885" s="7"/>
+      <c r="C885" s="7"/>
     </row>
     <row r="886">
-      <c r="A886" s="6"/>
-      <c r="B886" s="6"/>
-      <c r="C886" s="6"/>
+      <c r="A886" s="7"/>
+      <c r="B886" s="7"/>
+      <c r="C886" s="7"/>
     </row>
     <row r="887">
-      <c r="A887" s="6"/>
-      <c r="B887" s="6"/>
-      <c r="C887" s="6"/>
+      <c r="A887" s="7"/>
+      <c r="B887" s="7"/>
+      <c r="C887" s="7"/>
     </row>
     <row r="888">
-      <c r="A888" s="6"/>
-      <c r="B888" s="6"/>
-      <c r="C888" s="6"/>
+      <c r="A888" s="7"/>
+      <c r="B888" s="7"/>
+      <c r="C888" s="7"/>
     </row>
     <row r="889">
-      <c r="A889" s="6"/>
-      <c r="B889" s="6"/>
-      <c r="C889" s="6"/>
+      <c r="A889" s="7"/>
+      <c r="B889" s="7"/>
+      <c r="C889" s="7"/>
     </row>
     <row r="890">
-      <c r="A890" s="6"/>
-      <c r="B890" s="6"/>
-      <c r="C890" s="6"/>
+      <c r="A890" s="7"/>
+      <c r="B890" s="7"/>
+      <c r="C890" s="7"/>
     </row>
     <row r="891">
-      <c r="A891" s="6"/>
-      <c r="B891" s="6"/>
-      <c r="C891" s="6"/>
+      <c r="A891" s="7"/>
+      <c r="B891" s="7"/>
+      <c r="C891" s="7"/>
     </row>
     <row r="892">
-      <c r="A892" s="6"/>
-      <c r="B892" s="6"/>
-      <c r="C892" s="6"/>
+      <c r="A892" s="7"/>
+      <c r="B892" s="7"/>
+      <c r="C892" s="7"/>
     </row>
     <row r="893">
-      <c r="A893" s="6"/>
-      <c r="B893" s="6"/>
-      <c r="C893" s="6"/>
+      <c r="A893" s="7"/>
+      <c r="B893" s="7"/>
+      <c r="C893" s="7"/>
     </row>
     <row r="894">
-      <c r="A894" s="6"/>
-      <c r="B894" s="6"/>
-      <c r="C894" s="6"/>
+      <c r="A894" s="7"/>
+      <c r="B894" s="7"/>
+      <c r="C894" s="7"/>
     </row>
     <row r="895">
-      <c r="A895" s="6"/>
-      <c r="B895" s="6"/>
-      <c r="C895" s="6"/>
+      <c r="A895" s="7"/>
+      <c r="B895" s="7"/>
+      <c r="C895" s="7"/>
     </row>
     <row r="896">
-      <c r="A896" s="6"/>
-      <c r="B896" s="6"/>
-      <c r="C896" s="6"/>
+      <c r="A896" s="7"/>
+      <c r="B896" s="7"/>
+      <c r="C896" s="7"/>
     </row>
     <row r="897">
-      <c r="A897" s="6"/>
-      <c r="B897" s="6"/>
-      <c r="C897" s="6"/>
+      <c r="A897" s="7"/>
+      <c r="B897" s="7"/>
+      <c r="C897" s="7"/>
     </row>
     <row r="898">
-      <c r="A898" s="6"/>
-      <c r="B898" s="6"/>
-      <c r="C898" s="6"/>
+      <c r="A898" s="7"/>
+      <c r="B898" s="7"/>
+      <c r="C898" s="7"/>
     </row>
     <row r="899">
-      <c r="A899" s="6"/>
-      <c r="B899" s="6"/>
-      <c r="C899" s="6"/>
+      <c r="A899" s="7"/>
+      <c r="B899" s="7"/>
+      <c r="C899" s="7"/>
     </row>
     <row r="900">
-      <c r="A900" s="6"/>
-      <c r="B900" s="6"/>
-      <c r="C900" s="6"/>
+      <c r="A900" s="7"/>
+      <c r="B900" s="7"/>
+      <c r="C900" s="7"/>
     </row>
     <row r="901">
-      <c r="A901" s="6"/>
-      <c r="B901" s="6"/>
-      <c r="C901" s="6"/>
+      <c r="A901" s="7"/>
+      <c r="B901" s="7"/>
+      <c r="C901" s="7"/>
     </row>
     <row r="902">
-      <c r="A902" s="6"/>
-      <c r="B902" s="6"/>
-      <c r="C902" s="6"/>
+      <c r="A902" s="7"/>
+      <c r="B902" s="7"/>
+      <c r="C902" s="7"/>
     </row>
     <row r="903">
-      <c r="A903" s="6"/>
-      <c r="B903" s="6"/>
-      <c r="C903" s="6"/>
+      <c r="A903" s="7"/>
+      <c r="B903" s="7"/>
+      <c r="C903" s="7"/>
     </row>
     <row r="904">
-      <c r="A904" s="6"/>
-      <c r="B904" s="6"/>
-      <c r="C904" s="6"/>
+      <c r="A904" s="7"/>
+      <c r="B904" s="7"/>
+      <c r="C904" s="7"/>
     </row>
     <row r="905">
-      <c r="A905" s="6"/>
-      <c r="B905" s="6"/>
-      <c r="C905" s="6"/>
+      <c r="A905" s="7"/>
+      <c r="B905" s="7"/>
+      <c r="C905" s="7"/>
     </row>
     <row r="906">
-      <c r="A906" s="6"/>
-      <c r="B906" s="6"/>
-      <c r="C906" s="6"/>
+      <c r="A906" s="7"/>
+      <c r="B906" s="7"/>
+      <c r="C906" s="7"/>
     </row>
     <row r="907">
-      <c r="A907" s="6"/>
-      <c r="B907" s="6"/>
-      <c r="C907" s="6"/>
+      <c r="A907" s="7"/>
+      <c r="B907" s="7"/>
+      <c r="C907" s="7"/>
     </row>
     <row r="908">
-      <c r="A908" s="6"/>
-      <c r="B908" s="6"/>
-      <c r="C908" s="6"/>
+      <c r="A908" s="7"/>
+      <c r="B908" s="7"/>
+      <c r="C908" s="7"/>
     </row>
     <row r="909">
-      <c r="A909" s="6"/>
-      <c r="B909" s="6"/>
-      <c r="C909" s="6"/>
+      <c r="A909" s="7"/>
+      <c r="B909" s="7"/>
+      <c r="C909" s="7"/>
     </row>
     <row r="910">
-      <c r="A910" s="6"/>
-      <c r="B910" s="6"/>
-      <c r="C910" s="6"/>
+      <c r="A910" s="7"/>
+      <c r="B910" s="7"/>
+      <c r="C910" s="7"/>
     </row>
     <row r="911">
-      <c r="A911" s="6"/>
-      <c r="B911" s="6"/>
-      <c r="C911" s="6"/>
+      <c r="A911" s="7"/>
+      <c r="B911" s="7"/>
+      <c r="C911" s="7"/>
     </row>
     <row r="912">
-      <c r="A912" s="6"/>
-      <c r="B912" s="6"/>
-      <c r="C912" s="6"/>
+      <c r="A912" s="7"/>
+      <c r="B912" s="7"/>
+      <c r="C912" s="7"/>
     </row>
     <row r="913">
-      <c r="A913" s="6"/>
-      <c r="B913" s="6"/>
-      <c r="C913" s="6"/>
+      <c r="A913" s="7"/>
+      <c r="B913" s="7"/>
+      <c r="C913" s="7"/>
     </row>
     <row r="914">
-      <c r="A914" s="6"/>
-      <c r="B914" s="6"/>
-      <c r="C914" s="6"/>
+      <c r="A914" s="7"/>
+      <c r="B914" s="7"/>
+      <c r="C914" s="7"/>
     </row>
     <row r="915">
-      <c r="A915" s="6"/>
-      <c r="B915" s="6"/>
-      <c r="C915" s="6"/>
+      <c r="A915" s="7"/>
+      <c r="B915" s="7"/>
+      <c r="C915" s="7"/>
     </row>
     <row r="916">
-      <c r="A916" s="6"/>
-      <c r="B916" s="6"/>
-      <c r="C916" s="6"/>
+      <c r="A916" s="7"/>
+      <c r="B916" s="7"/>
+      <c r="C916" s="7"/>
     </row>
     <row r="917">
-      <c r="A917" s="6"/>
-      <c r="B917" s="6"/>
-      <c r="C917" s="6"/>
+      <c r="A917" s="7"/>
+      <c r="B917" s="7"/>
+      <c r="C917" s="7"/>
     </row>
     <row r="918">
-      <c r="A918" s="6"/>
-      <c r="B918" s="6"/>
-      <c r="C918" s="6"/>
+      <c r="A918" s="7"/>
+      <c r="B918" s="7"/>
+      <c r="C918" s="7"/>
     </row>
     <row r="919">
-      <c r="A919" s="6"/>
-      <c r="B919" s="6"/>
-      <c r="C919" s="6"/>
+      <c r="A919" s="7"/>
+      <c r="B919" s="7"/>
+      <c r="C919" s="7"/>
     </row>
     <row r="920">
-      <c r="A920" s="6"/>
-      <c r="B920" s="6"/>
-      <c r="C920" s="6"/>
+      <c r="A920" s="7"/>
+      <c r="B920" s="7"/>
+      <c r="C920" s="7"/>
     </row>
     <row r="921">
-      <c r="A921" s="6"/>
-      <c r="B921" s="6"/>
-      <c r="C921" s="6"/>
+      <c r="A921" s="7"/>
+      <c r="B921" s="7"/>
+      <c r="C921" s="7"/>
     </row>
     <row r="922">
-      <c r="A922" s="6"/>
-      <c r="B922" s="6"/>
-      <c r="C922" s="6"/>
+      <c r="A922" s="7"/>
+      <c r="B922" s="7"/>
+      <c r="C922" s="7"/>
     </row>
     <row r="923">
-      <c r="A923" s="6"/>
-      <c r="B923" s="6"/>
-      <c r="C923" s="6"/>
+      <c r="A923" s="7"/>
+      <c r="B923" s="7"/>
+      <c r="C923" s="7"/>
     </row>
     <row r="924">
-      <c r="A924" s="6"/>
-      <c r="B924" s="6"/>
-      <c r="C924" s="6"/>
+      <c r="A924" s="7"/>
+      <c r="B924" s="7"/>
+      <c r="C924" s="7"/>
     </row>
     <row r="925">
-      <c r="A925" s="6"/>
-      <c r="B925" s="6"/>
-      <c r="C925" s="6"/>
+      <c r="A925" s="7"/>
+      <c r="B925" s="7"/>
+      <c r="C925" s="7"/>
     </row>
     <row r="926">
-      <c r="A926" s="6"/>
-      <c r="B926" s="6"/>
-      <c r="C926" s="6"/>
+      <c r="A926" s="7"/>
+      <c r="B926" s="7"/>
+      <c r="C926" s="7"/>
     </row>
     <row r="927">
-      <c r="A927" s="6"/>
-      <c r="B927" s="6"/>
-      <c r="C927" s="6"/>
+      <c r="A927" s="7"/>
+      <c r="B927" s="7"/>
+      <c r="C927" s="7"/>
     </row>
     <row r="928">
-      <c r="A928" s="6"/>
-      <c r="B928" s="6"/>
-      <c r="C928" s="6"/>
+      <c r="A928" s="7"/>
+      <c r="B928" s="7"/>
+      <c r="C928" s="7"/>
     </row>
     <row r="929">
-      <c r="A929" s="6"/>
-      <c r="B929" s="6"/>
-      <c r="C929" s="6"/>
+      <c r="A929" s="7"/>
+      <c r="B929" s="7"/>
+      <c r="C929" s="7"/>
     </row>
     <row r="930">
-      <c r="A930" s="6"/>
-      <c r="B930" s="6"/>
-      <c r="C930" s="6"/>
+      <c r="A930" s="7"/>
+      <c r="B930" s="7"/>
+      <c r="C930" s="7"/>
     </row>
     <row r="931">
-      <c r="A931" s="6"/>
-      <c r="B931" s="6"/>
-      <c r="C931" s="6"/>
+      <c r="A931" s="7"/>
+      <c r="B931" s="7"/>
+      <c r="C931" s="7"/>
     </row>
     <row r="932">
-      <c r="A932" s="6"/>
-      <c r="B932" s="6"/>
-      <c r="C932" s="6"/>
+      <c r="A932" s="7"/>
+      <c r="B932" s="7"/>
+      <c r="C932" s="7"/>
     </row>
     <row r="933">
-      <c r="A933" s="6"/>
-      <c r="B933" s="6"/>
-      <c r="C933" s="6"/>
+      <c r="A933" s="7"/>
+      <c r="B933" s="7"/>
+      <c r="C933" s="7"/>
     </row>
     <row r="934">
-      <c r="A934" s="6"/>
-      <c r="B934" s="6"/>
-      <c r="C934" s="6"/>
+      <c r="A934" s="7"/>
+      <c r="B934" s="7"/>
+      <c r="C934" s="7"/>
     </row>
     <row r="935">
-      <c r="A935" s="6"/>
-      <c r="B935" s="6"/>
-      <c r="C935" s="6"/>
+      <c r="A935" s="7"/>
+      <c r="B935" s="7"/>
+      <c r="C935" s="7"/>
     </row>
     <row r="936">
-      <c r="A936" s="6"/>
-      <c r="B936" s="6"/>
-      <c r="C936" s="6"/>
+      <c r="A936" s="7"/>
+      <c r="B936" s="7"/>
+      <c r="C936" s="7"/>
     </row>
     <row r="937">
-      <c r="A937" s="6"/>
-      <c r="B937" s="6"/>
-      <c r="C937" s="6"/>
+      <c r="A937" s="7"/>
+      <c r="B937" s="7"/>
+      <c r="C937" s="7"/>
     </row>
     <row r="938">
-      <c r="A938" s="6"/>
-      <c r="B938" s="6"/>
-      <c r="C938" s="6"/>
+      <c r="A938" s="7"/>
+      <c r="B938" s="7"/>
+      <c r="C938" s="7"/>
     </row>
     <row r="939">
-      <c r="A939" s="6"/>
-      <c r="B939" s="6"/>
-      <c r="C939" s="6"/>
+      <c r="A939" s="7"/>
+      <c r="B939" s="7"/>
+      <c r="C939" s="7"/>
     </row>
     <row r="940">
-      <c r="A940" s="6"/>
-      <c r="B940" s="6"/>
-      <c r="C940" s="6"/>
+      <c r="A940" s="7"/>
+      <c r="B940" s="7"/>
+      <c r="C940" s="7"/>
     </row>
     <row r="941">
-      <c r="A941" s="6"/>
-      <c r="B941" s="6"/>
-      <c r="C941" s="6"/>
+      <c r="A941" s="7"/>
+      <c r="B941" s="7"/>
+      <c r="C941" s="7"/>
     </row>
     <row r="942">
-      <c r="A942" s="6"/>
-      <c r="B942" s="6"/>
-      <c r="C942" s="6"/>
+      <c r="A942" s="7"/>
+      <c r="B942" s="7"/>
+      <c r="C942" s="7"/>
     </row>
     <row r="943">
-      <c r="A943" s="6"/>
-      <c r="B943" s="6"/>
-      <c r="C943" s="6"/>
+      <c r="A943" s="7"/>
+      <c r="B943" s="7"/>
+      <c r="C943" s="7"/>
     </row>
     <row r="944">
-      <c r="A944" s="6"/>
-      <c r="B944" s="6"/>
-      <c r="C944" s="6"/>
+      <c r="A944" s="7"/>
+      <c r="B944" s="7"/>
+      <c r="C944" s="7"/>
     </row>
     <row r="945">
-      <c r="A945" s="6"/>
-      <c r="B945" s="6"/>
-      <c r="C945" s="6"/>
+      <c r="A945" s="7"/>
+      <c r="B945" s="7"/>
+      <c r="C945" s="7"/>
     </row>
     <row r="946">
-      <c r="A946" s="6"/>
-      <c r="B946" s="6"/>
-      <c r="C946" s="6"/>
+      <c r="A946" s="7"/>
+      <c r="B946" s="7"/>
+      <c r="C946" s="7"/>
     </row>
     <row r="947">
-      <c r="A947" s="6"/>
-      <c r="B947" s="6"/>
-      <c r="C947" s="6"/>
+      <c r="A947" s="7"/>
+      <c r="B947" s="7"/>
+      <c r="C947" s="7"/>
     </row>
     <row r="948">
-      <c r="A948" s="6"/>
-      <c r="B948" s="6"/>
-      <c r="C948" s="6"/>
+      <c r="A948" s="7"/>
+      <c r="B948" s="7"/>
+      <c r="C948" s="7"/>
     </row>
     <row r="949">
-      <c r="A949" s="6"/>
-      <c r="B949" s="6"/>
-      <c r="C949" s="6"/>
+      <c r="A949" s="7"/>
+      <c r="B949" s="7"/>
+      <c r="C949" s="7"/>
     </row>
     <row r="950">
-      <c r="A950" s="6"/>
-      <c r="B950" s="6"/>
-      <c r="C950" s="6"/>
+      <c r="A950" s="7"/>
+      <c r="B950" s="7"/>
+      <c r="C950" s="7"/>
     </row>
     <row r="951">
-      <c r="A951" s="6"/>
-      <c r="B951" s="6"/>
-      <c r="C951" s="6"/>
+      <c r="A951" s="7"/>
+      <c r="B951" s="7"/>
+      <c r="C951" s="7"/>
     </row>
     <row r="952">
-      <c r="A952" s="6"/>
-      <c r="B952" s="6"/>
-      <c r="C952" s="6"/>
+      <c r="A952" s="7"/>
+      <c r="B952" s="7"/>
+      <c r="C952" s="7"/>
     </row>
     <row r="953">
-      <c r="A953" s="6"/>
-      <c r="B953" s="6"/>
-      <c r="C953" s="6"/>
+      <c r="A953" s="7"/>
+      <c r="B953" s="7"/>
+      <c r="C953" s="7"/>
     </row>
     <row r="954">
-      <c r="A954" s="6"/>
-      <c r="B954" s="6"/>
-      <c r="C954" s="6"/>
+      <c r="A954" s="7"/>
+      <c r="B954" s="7"/>
+      <c r="C954" s="7"/>
     </row>
     <row r="955">
-      <c r="A955" s="6"/>
-      <c r="B955" s="6"/>
-      <c r="C955" s="6"/>
+      <c r="A955" s="7"/>
+      <c r="B955" s="7"/>
+      <c r="C955" s="7"/>
     </row>
     <row r="956">
-      <c r="A956" s="6"/>
-      <c r="B956" s="6"/>
-      <c r="C956" s="6"/>
+      <c r="A956" s="7"/>
+      <c r="B956" s="7"/>
+      <c r="C956" s="7"/>
     </row>
     <row r="957">
-      <c r="A957" s="6"/>
-      <c r="B957" s="6"/>
-      <c r="C957" s="6"/>
+      <c r="A957" s="7"/>
+      <c r="B957" s="7"/>
+      <c r="C957" s="7"/>
     </row>
     <row r="958">
-      <c r="A958" s="6"/>
-      <c r="B958" s="6"/>
-      <c r="C958" s="6"/>
+      <c r="A958" s="7"/>
+      <c r="B958" s="7"/>
+      <c r="C958" s="7"/>
     </row>
     <row r="959">
-      <c r="A959" s="6"/>
-      <c r="B959" s="6"/>
-      <c r="C959" s="6"/>
+      <c r="A959" s="7"/>
+      <c r="B959" s="7"/>
+      <c r="C959" s="7"/>
     </row>
     <row r="960">
-      <c r="A960" s="6"/>
-      <c r="B960" s="6"/>
-      <c r="C960" s="6"/>
+      <c r="A960" s="7"/>
+      <c r="B960" s="7"/>
+      <c r="C960" s="7"/>
     </row>
     <row r="961">
-      <c r="A961" s="6"/>
-      <c r="B961" s="6"/>
-      <c r="C961" s="6"/>
+      <c r="A961" s="7"/>
+      <c r="B961" s="7"/>
+      <c r="C961" s="7"/>
     </row>
     <row r="962">
-      <c r="A962" s="6"/>
-      <c r="B962" s="6"/>
-      <c r="C962" s="6"/>
+      <c r="A962" s="7"/>
+      <c r="B962" s="7"/>
+      <c r="C962" s="7"/>
     </row>
     <row r="963">
-      <c r="A963" s="6"/>
-      <c r="B963" s="6"/>
-      <c r="C963" s="6"/>
+      <c r="A963" s="7"/>
+      <c r="B963" s="7"/>
+      <c r="C963" s="7"/>
     </row>
     <row r="964">
-      <c r="A964" s="6"/>
-      <c r="B964" s="6"/>
-      <c r="C964" s="6"/>
+      <c r="A964" s="7"/>
+      <c r="B964" s="7"/>
+      <c r="C964" s="7"/>
     </row>
     <row r="965">
-      <c r="A965" s="6"/>
-      <c r="B965" s="6"/>
-      <c r="C965" s="6"/>
+      <c r="A965" s="7"/>
+      <c r="B965" s="7"/>
+      <c r="C965" s="7"/>
     </row>
     <row r="966">
-      <c r="A966" s="6"/>
-      <c r="B966" s="6"/>
-      <c r="C966" s="6"/>
+      <c r="A966" s="7"/>
+      <c r="B966" s="7"/>
+      <c r="C966" s="7"/>
     </row>
     <row r="967">
-      <c r="A967" s="6"/>
-      <c r="B967" s="6"/>
-      <c r="C967" s="6"/>
+      <c r="A967" s="7"/>
+      <c r="B967" s="7"/>
+      <c r="C967" s="7"/>
     </row>
     <row r="968">
-      <c r="A968" s="6"/>
-      <c r="B968" s="6"/>
-      <c r="C968" s="6"/>
+      <c r="A968" s="7"/>
+      <c r="B968" s="7"/>
+      <c r="C968" s="7"/>
     </row>
     <row r="969">
-      <c r="A969" s="6"/>
-      <c r="B969" s="6"/>
-      <c r="C969" s="6"/>
+      <c r="A969" s="7"/>
+      <c r="B969" s="7"/>
+      <c r="C969" s="7"/>
     </row>
     <row r="970">
-      <c r="A970" s="6"/>
-      <c r="B970" s="6"/>
-      <c r="C970" s="6"/>
+      <c r="A970" s="7"/>
+      <c r="B970" s="7"/>
+      <c r="C970" s="7"/>
     </row>
     <row r="971">
-      <c r="A971" s="6"/>
-      <c r="B971" s="6"/>
-      <c r="C971" s="6"/>
+      <c r="A971" s="7"/>
+      <c r="B971" s="7"/>
+      <c r="C971" s="7"/>
     </row>
     <row r="972">
-      <c r="A972" s="6"/>
-      <c r="B972" s="6"/>
-      <c r="C972" s="6"/>
+      <c r="A972" s="7"/>
+      <c r="B972" s="7"/>
+      <c r="C972" s="7"/>
     </row>
     <row r="973">
-      <c r="A973" s="6"/>
-      <c r="B973" s="6"/>
-      <c r="C973" s="6"/>
+      <c r="A973" s="7"/>
+      <c r="B973" s="7"/>
+      <c r="C973" s="7"/>
     </row>
     <row r="974">
-      <c r="A974" s="6"/>
-      <c r="B974" s="6"/>
-      <c r="C974" s="6"/>
+      <c r="A974" s="7"/>
+      <c r="B974" s="7"/>
+      <c r="C974" s="7"/>
     </row>
     <row r="975">
-      <c r="A975" s="6"/>
-      <c r="B975" s="6"/>
-      <c r="C975" s="6"/>
+      <c r="A975" s="7"/>
+      <c r="B975" s="7"/>
+      <c r="C975" s="7"/>
     </row>
     <row r="976">
-      <c r="A976" s="6"/>
-      <c r="B976" s="6"/>
-      <c r="C976" s="6"/>
+      <c r="A976" s="7"/>
+      <c r="B976" s="7"/>
+      <c r="C976" s="7"/>
     </row>
     <row r="977">
-      <c r="A977" s="6"/>
-      <c r="B977" s="6"/>
-      <c r="C977" s="6"/>
+      <c r="A977" s="7"/>
+      <c r="B977" s="7"/>
+      <c r="C977" s="7"/>
     </row>
     <row r="978">
-      <c r="A978" s="6"/>
-      <c r="B978" s="6"/>
-      <c r="C978" s="6"/>
+      <c r="A978" s="7"/>
+      <c r="B978" s="7"/>
+      <c r="C978" s="7"/>
     </row>
     <row r="979">
-      <c r="A979" s="6"/>
-      <c r="B979" s="6"/>
-      <c r="C979" s="6"/>
+      <c r="A979" s="7"/>
+      <c r="B979" s="7"/>
+      <c r="C979" s="7"/>
     </row>
     <row r="980">
-      <c r="A980" s="6"/>
-      <c r="B980" s="6"/>
-      <c r="C980" s="6"/>
+      <c r="A980" s="7"/>
+      <c r="B980" s="7"/>
+      <c r="C980" s="7"/>
     </row>
     <row r="981">
-      <c r="A981" s="6"/>
-      <c r="B981" s="6"/>
-      <c r="C981" s="6"/>
+      <c r="A981" s="7"/>
+      <c r="B981" s="7"/>
+      <c r="C981" s="7"/>
     </row>
     <row r="982">
-      <c r="A982" s="6"/>
-      <c r="B982" s="6"/>
-      <c r="C982" s="6"/>
+      <c r="A982" s="7"/>
+      <c r="B982" s="7"/>
+      <c r="C982" s="7"/>
     </row>
     <row r="983">
-      <c r="A983" s="6"/>
-      <c r="B983" s="6"/>
-      <c r="C983" s="6"/>
+      <c r="A983" s="7"/>
+      <c r="B983" s="7"/>
+      <c r="C983" s="7"/>
     </row>
     <row r="984">
-      <c r="A984" s="6"/>
-      <c r="B984" s="6"/>
-      <c r="C984" s="6"/>
+      <c r="A984" s="7"/>
+      <c r="B984" s="7"/>
+      <c r="C984" s="7"/>
     </row>
     <row r="985">
-      <c r="A985" s="6"/>
-      <c r="B985" s="6"/>
-      <c r="C985" s="6"/>
+      <c r="A985" s="7"/>
+      <c r="B985" s="7"/>
+      <c r="C985" s="7"/>
     </row>
     <row r="986">
-      <c r="A986" s="6"/>
-      <c r="B986" s="6"/>
-      <c r="C986" s="6"/>
+      <c r="A986" s="7"/>
+      <c r="B986" s="7"/>
+      <c r="C986" s="7"/>
     </row>
     <row r="987">
-      <c r="A987" s="6"/>
-      <c r="B987" s="6"/>
-      <c r="C987" s="6"/>
+      <c r="A987" s="7"/>
+      <c r="B987" s="7"/>
+      <c r="C987" s="7"/>
     </row>
     <row r="988">
-      <c r="A988" s="6"/>
-      <c r="B988" s="6"/>
-      <c r="C988" s="6"/>
+      <c r="A988" s="7"/>
+      <c r="B988" s="7"/>
+      <c r="C988" s="7"/>
     </row>
     <row r="989">
-      <c r="A989" s="6"/>
-      <c r="B989" s="6"/>
-      <c r="C989" s="6"/>
+      <c r="A989" s="7"/>
+      <c r="B989" s="7"/>
+      <c r="C989" s="7"/>
     </row>
     <row r="990">
-      <c r="A990" s="6"/>
-      <c r="B990" s="6"/>
-      <c r="C990" s="6"/>
+      <c r="A990" s="7"/>
+      <c r="B990" s="7"/>
+      <c r="C990" s="7"/>
     </row>
     <row r="991">
-      <c r="A991" s="6"/>
-      <c r="B991" s="6"/>
-      <c r="C991" s="6"/>
+      <c r="A991" s="7"/>
+      <c r="B991" s="7"/>
+      <c r="C991" s="7"/>
     </row>
     <row r="992">
-      <c r="A992" s="6"/>
-      <c r="B992" s="6"/>
-      <c r="C992" s="6"/>
+      <c r="A992" s="7"/>
+      <c r="B992" s="7"/>
+      <c r="C992" s="7"/>
     </row>
     <row r="993">
-      <c r="A993" s="6"/>
-      <c r="B993" s="6"/>
-      <c r="C993" s="6"/>
+      <c r="A993" s="7"/>
+      <c r="B993" s="7"/>
+      <c r="C993" s="7"/>
     </row>
     <row r="994">
-      <c r="A994" s="6"/>
-      <c r="B994" s="6"/>
-      <c r="C994" s="6"/>
+      <c r="A994" s="7"/>
+      <c r="B994" s="7"/>
+      <c r="C994" s="7"/>
     </row>
     <row r="995">
-      <c r="A995" s="6"/>
-      <c r="B995" s="6"/>
-      <c r="C995" s="6"/>
+      <c r="A995" s="7"/>
+      <c r="B995" s="7"/>
+      <c r="C995" s="7"/>
     </row>
     <row r="996">
-      <c r="A996" s="6"/>
-      <c r="B996" s="6"/>
-      <c r="C996" s="6"/>
+      <c r="A996" s="7"/>
+      <c r="B996" s="7"/>
+      <c r="C996" s="7"/>
     </row>
     <row r="997">
-      <c r="A997" s="6"/>
-      <c r="B997" s="6"/>
-      <c r="C997" s="6"/>
+      <c r="A997" s="7"/>
+      <c r="B997" s="7"/>
+      <c r="C997" s="7"/>
     </row>
     <row r="998">
-      <c r="A998" s="6"/>
-      <c r="B998" s="6"/>
-      <c r="C998" s="6"/>
+      <c r="A998" s="7"/>
+      <c r="B998" s="7"/>
+      <c r="C998" s="7"/>
     </row>
     <row r="999">
-      <c r="A999" s="6"/>
-      <c r="B999" s="6"/>
-      <c r="C999" s="6"/>
+      <c r="A999" s="7"/>
+      <c r="B999" s="7"/>
+      <c r="C999" s="7"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="6"/>
-      <c r="B1000" s="6"/>
-      <c r="C1000" s="6"/>
+      <c r="A1000" s="7"/>
+      <c r="B1000" s="7"/>
+      <c r="C1000" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
